--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="315">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -143,6 +143,12 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
+    <t>Other: troposphere</t>
+  </si>
+  <si>
+    <t>Stratosphere</t>
+  </si>
+  <si>
     <t>1.1.4 - Basic Approximations</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Number/mass</t>
+  </si>
+  <si>
     <t>1.1.5 - Prognostic Variables Form</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
     <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
   </si>
   <si>
+    <t>Other: 3d mass/volume mixing ratio for aerosols</t>
+  </si>
+  <si>
     <t>1.1.6 - Number Of Tracers</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Other: uses atmosphericchemistry time stepping</t>
+  </si>
+  <si>
     <t>1.3.2 - Split Operator Advection Timestep</t>
   </si>
   <si>
@@ -590,6 +605,9 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
+    <t>No limit</t>
+  </si>
+  <si>
     <t>5.1.3 - Prescribed Upper Boundary</t>
   </si>
   <si>
@@ -608,12 +626,15 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t>5.1.5 - Prescribed Fields Mmr</t>
+    <t>5.1.5 - Prescribed Fields Aod Plus Ccn</t>
   </si>
   <si>
     <t>List of species prescribed as AOD plus CCNs.</t>
   </si>
   <si>
+    <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -725,12 +746,21 @@
     <t>6.4.2 - Internal Mixture</t>
   </si>
   <si>
-    <t>Does H2O impact internal mixture?</t>
+    <t>Does H2O impact aerosol internal mixture?</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
+    <t>6.4.3 - External Mixture</t>
+  </si>
+  <si>
+    <t>Does H2O impact aerosol external mixture?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
+  </si>
+  <si>
     <t>6.5</t>
   </si>
   <si>
@@ -857,6 +887,33 @@
     <t>cmip6.aerosol.model.processes</t>
   </si>
   <si>
+    <t>Advection (horizontal)</t>
+  </si>
+  <si>
+    <t>Advection (vertical)</t>
+  </si>
+  <si>
+    <t>Condensation</t>
+  </si>
+  <si>
+    <t>Dry deposition</t>
+  </si>
+  <si>
+    <t>Oxidation (gas phase)</t>
+  </si>
+  <si>
+    <t>Oxidation (in cloud)</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Wet deposition (impaction scavenging)</t>
+  </si>
+  <si>
+    <t>Wet deposition (nucleation scavenging)</t>
+  </si>
+  <si>
     <t>7.1.3 - Coupling</t>
   </si>
   <si>
@@ -866,6 +923,12 @@
     <t>cmip6.aerosol.model.coupling</t>
   </si>
   <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
     <t>7.1.4 - Gas Phase Precursors</t>
   </si>
   <si>
@@ -875,6 +938,12 @@
     <t>cmip6.aerosol.model.gas_phase_precursors</t>
   </si>
   <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
     <t>7.1.5 - Scheme Type</t>
   </si>
   <si>
@@ -882,6 +951,12 @@
   </si>
   <si>
     <t>cmip6.aerosol.model.scheme_type</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Modal</t>
   </si>
   <si>
     <t>7.1.6 - Bulk Scheme Species</t>
@@ -1560,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1710,1018 +1785,1035 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="18" spans="2:6" ht="24" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
+    </row>
+    <row r="17" spans="2:6" ht="24" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="11" t="b">
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1">
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="22" spans="2:6" ht="24" customHeight="1">
-      <c r="B22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
+      <c r="F20" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="24" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="11" t="b">
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="24" customHeight="1">
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="24" customHeight="1">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="26" spans="2:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>28</v>
+      <c r="F24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="24" customHeight="1">
+      <c r="B25" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="11" t="b">
+      <c r="B27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="30" spans="2:6" ht="24" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>28</v>
+      <c r="E28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="24" customHeight="1">
+      <c r="B29" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="11" t="b">
+      <c r="B31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="24" customHeight="1">
+      <c r="B32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1">
+      <c r="B33" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1">
+      <c r="B37" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1">
+      <c r="B47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="B48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1">
+      <c r="B53" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="7" t="s">
+      <c r="F60" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="24" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="B64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="24" customHeight="1">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="71" spans="1:6" ht="24" customHeight="1">
+      <c r="B71" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24" customHeight="1">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="24" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="24" customHeight="1">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="24" customHeight="1">
+      <c r="B79" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" customHeight="1">
+      <c r="B80" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" customHeight="1">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="83" spans="1:6" ht="24" customHeight="1">
+      <c r="B83" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24" customHeight="1">
+      <c r="B84" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="24" customHeight="1">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="87" spans="1:6" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="24" customHeight="1">
+      <c r="B88" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" customHeight="1">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="92" spans="1:6" ht="24" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="24" customHeight="1">
+      <c r="B93" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="24" customHeight="1">
+      <c r="B95" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="24" customHeight="1">
+      <c r="B96" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="24" customHeight="1">
+      <c r="B97" s="13"/>
+    </row>
+    <row r="99" spans="2:6" ht="24" customHeight="1">
+      <c r="B99" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="24" customHeight="1">
+      <c r="B100" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="24" customHeight="1">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="103" spans="2:6" ht="24" customHeight="1">
+      <c r="B103" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="24" customHeight="1">
+      <c r="B104" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="24" customHeight="1">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="107" spans="2:6" ht="24" customHeight="1">
+      <c r="B107" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="24" customHeight="1">
+      <c r="B108" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="24" customHeight="1">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="111" spans="2:6" ht="24" customHeight="1">
+      <c r="B111" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="24" customHeight="1">
+      <c r="B112" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="11" t="b">
+      <c r="F112" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="24" customHeight="1">
+      <c r="B113" s="13"/>
+    </row>
+    <row r="116" spans="1:6" ht="24" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" ht="24" customHeight="1">
+      <c r="B117" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="24" customHeight="1">
+      <c r="B119" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="24" customHeight="1">
+      <c r="B120" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="24" customHeight="1">
+      <c r="B121" s="13"/>
+    </row>
+    <row r="123" spans="1:6" ht="24" customHeight="1">
+      <c r="B123" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="24" customHeight="1">
+      <c r="B124" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D124" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1">
-      <c r="B42" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="11" t="b">
+      <c r="F124" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="24" customHeight="1">
+      <c r="B125" s="13"/>
+    </row>
+    <row r="127" spans="1:6" ht="24" customHeight="1">
+      <c r="B127" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="24" customHeight="1">
+      <c r="B128" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="D128" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="46" spans="1:6" ht="24" customHeight="1">
-      <c r="B46" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="B47" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="11" t="b">
+      <c r="F128" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="24" customHeight="1">
+      <c r="B129" s="13"/>
+    </row>
+    <row r="131" spans="2:6" ht="24" customHeight="1">
+      <c r="B131" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="24" customHeight="1">
+      <c r="B132" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="D132" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="B55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="62" spans="1:6" ht="24" customHeight="1">
-      <c r="B62" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="B63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="66" spans="1:6" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="24" customHeight="1">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="70" spans="1:6" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="24" customHeight="1">
-      <c r="B72" s="13"/>
-    </row>
-    <row r="75" spans="1:6" ht="24" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" ht="24" customHeight="1">
-      <c r="B76" s="7"/>
-    </row>
-    <row r="78" spans="1:6" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="24" customHeight="1">
-      <c r="B79" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" customHeight="1">
-      <c r="B80" s="13"/>
-    </row>
-    <row r="82" spans="1:6" ht="24" customHeight="1">
-      <c r="B82" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" customHeight="1">
-      <c r="B83" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="24" customHeight="1">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="86" spans="1:6" ht="24" customHeight="1">
-      <c r="B86" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="24" customHeight="1">
-      <c r="B87" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="24" customHeight="1">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="91" spans="1:6" ht="24" customHeight="1">
-      <c r="A91" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" ht="24" customHeight="1">
-      <c r="B92" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="24" customHeight="1">
-      <c r="B94" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="24" customHeight="1">
-      <c r="B95" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="24" customHeight="1">
-      <c r="B96" s="13"/>
-    </row>
-    <row r="98" spans="2:6" ht="24" customHeight="1">
-      <c r="B98" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="24" customHeight="1">
-      <c r="B99" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="24" customHeight="1">
-      <c r="B100" s="13"/>
-    </row>
-    <row r="102" spans="2:6" ht="24" customHeight="1">
-      <c r="B102" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="24" customHeight="1">
-      <c r="B103" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="24" customHeight="1">
-      <c r="B104" s="13"/>
-    </row>
-    <row r="106" spans="2:6" ht="24" customHeight="1">
-      <c r="B106" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="24" customHeight="1">
-      <c r="B107" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" ht="24" customHeight="1">
-      <c r="B108" s="13"/>
-    </row>
-    <row r="110" spans="2:6" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="24" customHeight="1">
-      <c r="B111" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="24" customHeight="1">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="115" spans="1:6" ht="24" customHeight="1">
-      <c r="A115" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:6" ht="24" customHeight="1">
-      <c r="B116" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="24" customHeight="1">
-      <c r="B118" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="24" customHeight="1">
-      <c r="B119" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="24" customHeight="1">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="122" spans="1:6" ht="24" customHeight="1">
-      <c r="B122" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="24" customHeight="1">
-      <c r="B123" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="24" customHeight="1">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="126" spans="1:6" ht="24" customHeight="1">
-      <c r="B126" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="24" customHeight="1">
-      <c r="B127" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="24" customHeight="1">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="130" spans="2:6" ht="24" customHeight="1">
-      <c r="B130" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" ht="24" customHeight="1">
-      <c r="B131" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C131" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" ht="24" customHeight="1">
-      <c r="B132" s="13"/>
+      <c r="F132" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="24" customHeight="1">
+      <c r="B133" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>"Troposhere,Stratosphere,Mesosphere,Mesosphere,Whole atmosphere,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"3D mass/volume ratio for aerosols,3D number concenttration for aerosols,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
       <formula1>"Uses atmospheric chemistry time stepping,Specific timestepping (operator splitting),Specific timestepping (integrated),Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"Explicit,Implicit,Semi-implicit,Semi-analytic,Impact solver,Back Euler,Newton Raphson,Rosenbrock,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2745,10 +2837,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2776,10 +2868,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2788,10 +2880,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2800,12 +2892,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -2822,7 +2914,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -2834,7 +2926,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -2842,7 +2934,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -2859,7 +2951,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -2871,7 +2963,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -2879,7 +2971,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -2896,7 +2988,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -2908,7 +3000,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -2916,7 +3008,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -2933,7 +3025,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -2945,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -2983,10 +3075,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2995,10 +3087,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3007,12 +3099,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3029,7 +3121,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3041,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3049,7 +3141,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3066,7 +3158,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -3078,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -3086,7 +3178,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3103,19 +3195,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3123,7 +3215,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3140,19 +3232,19 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -3160,7 +3252,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -3177,19 +3269,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -3197,7 +3289,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>25</v>
@@ -3214,19 +3306,19 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -3234,7 +3326,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>25</v>
@@ -3251,19 +3343,19 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -3271,7 +3363,7 @@
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>25</v>
@@ -3288,19 +3380,19 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
@@ -3308,7 +3400,7 @@
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>25</v>
@@ -3325,19 +3417,19 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
@@ -3375,10 +3467,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3387,10 +3479,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3399,12 +3491,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3421,7 +3513,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3433,7 +3525,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3441,7 +3533,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3458,27 +3550,29 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3495,27 +3589,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3532,19 +3628,19 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -3552,7 +3648,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -3569,19 +3665,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -3594,7 +3690,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3608,10 +3704,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3620,10 +3716,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3632,12 +3728,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3654,7 +3750,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3666,7 +3762,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3674,10 +3770,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3686,12 +3782,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3708,19 +3804,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3728,7 +3824,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3745,19 +3841,19 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
@@ -3765,7 +3861,7 @@
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -3782,19 +3878,19 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -3802,10 +3898,10 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3817,7 +3913,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>25</v>
@@ -3834,7 +3930,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -3843,10 +3939,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -3854,7 +3950,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>25</v>
@@ -3871,7 +3967,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -3880,10 +3976,10 @@
         <v>22</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -3891,7 +3987,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>25</v>
@@ -3908,19 +4004,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -3928,10 +4024,10 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3943,7 +4039,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>25</v>
@@ -3960,7 +4056,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -3969,10 +4065,10 @@
         <v>22</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -3980,7 +4076,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>25</v>
@@ -3997,7 +4093,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -4006,72 +4102,72 @@
         <v>22</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13"/>
     </row>
+    <row r="54" spans="1:6" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="B55" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B56" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>241</v>
-      </c>
+      <c r="A59" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
+      <c r="B60" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>25</v>
@@ -4088,7 +4184,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -4097,10 +4193,10 @@
         <v>22</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -4108,7 +4204,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>25</v>
@@ -4125,7 +4221,7 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -4134,72 +4230,72 @@
         <v>22</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13"/>
     </row>
+    <row r="70" spans="1:6" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="B71" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
-      <c r="B72" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B72" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
-      <c r="B75" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C75" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>253</v>
-      </c>
+      <c r="A75" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
-      <c r="B76" s="13"/>
+      <c r="B76" s="7" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>25</v>
@@ -4216,7 +4312,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -4225,10 +4321,10 @@
         <v>22</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -4236,7 +4332,7 @@
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>25</v>
@@ -4253,19 +4349,19 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C83" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
@@ -4273,7 +4369,7 @@
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>25</v>
@@ -4290,19 +4386,19 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C87" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -4310,7 +4406,7 @@
     </row>
     <row r="90" spans="2:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>25</v>
@@ -4327,7 +4423,7 @@
     </row>
     <row r="91" spans="2:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -4336,10 +4432,10 @@
         <v>22</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="24" customHeight="1">
@@ -4347,7 +4443,7 @@
     </row>
     <row r="94" spans="2:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>25</v>
@@ -4364,7 +4460,7 @@
     </row>
     <row r="95" spans="2:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -4373,17 +4469,54 @@
         <v>22</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="24" customHeight="1">
       <c r="B96" s="13"/>
     </row>
+    <row r="98" spans="2:6" ht="24" customHeight="1">
+      <c r="B98" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="24" customHeight="1">
+      <c r="B99" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="24" customHeight="1">
+      <c r="B100" s="13"/>
+    </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
@@ -4408,25 +4541,28 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4436,7 +4572,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4450,10 +4586,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4462,10 +4598,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4474,12 +4610,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -4496,7 +4632,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4508,7 +4644,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4516,7 +4652,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -4533,7 +4669,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -4545,89 +4681,57 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
+      <c r="B14" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>280</v>
+      <c r="B15" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
+      <c r="B18" s="13" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>283</v>
+      <c r="B19" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -4644,70 +4748,165 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C23" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="26" spans="2:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>28</v>
+      <c r="B24" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="24" customHeight="1">
+      <c r="B25" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="11" t="b">
+      <c r="B27" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
+      <c r="F28" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="24" customHeight="1">
+      <c r="B29" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="24" customHeight="1">
+      <c r="B30" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="24" customHeight="1">
+      <c r="B32" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="24" customHeight="1">
+      <c r="B33" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24" customHeight="1">
+      <c r="B34" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="24" customHeight="1">
+      <c r="B35" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="24" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="24" customHeight="1">
+      <c r="B38" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="24" customHeight="1">
+      <c r="B39" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>"Radiation,Land surface,Heterogeneous chemistry,Clouds,Ocean,Cryosphere,Gas phase chemistry,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
       <formula1>"DMS,SO2,Ammonia,Iodine,Terpene,Isoprene,VOC,NOx,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>"Bulk,Modal,Bin,Other: document in the cell to the right"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Optical Radiative Properties" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Model" sheetId="8" r:id="rId8"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="517">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -53,25 +54,34 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions</t>
-  </si>
-  <si>
-    <t>5. Concentrations</t>
-  </si>
-  <si>
-    <t>6. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>7. Model</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions</t>
+  </si>
+  <si>
+    <t>6. Concentrations</t>
+  </si>
+  <si>
+    <t>7. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>8. Model</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -86,34 +96,58 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the aerosol model</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>Aerosols</t>
-  </si>
-  <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -128,7 +162,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -143,7 +177,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -158,15 +192,12 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+    <t>Troposphere</t>
   </si>
   <si>
     <t>Stratosphere</t>
   </si>
   <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
     <t>Mesosphere</t>
   </si>
   <si>
@@ -176,7 +207,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -188,10 +219,7 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>Number/mass</t>
-  </si>
-  <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -203,16 +231,13 @@
     <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
   </si>
   <si>
-    <t>Other: 3d mass/volume mixing ratio for aerosols</t>
-  </si>
-  <si>
     <t>3D mass/volume ratio for aerosols</t>
   </si>
   <si>
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -227,7 +252,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -242,7 +267,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -251,7 +276,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -263,7 +288,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -275,7 +300,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -287,7 +312,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -296,7 +321,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
@@ -305,7 +330,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -317,9 +342,6 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
-    <t>Other: uses atmosphericchemistry time stepping</t>
-  </si>
-  <si>
     <t>Uses atmospheric chemistry time stepping</t>
   </si>
   <si>
@@ -329,7 +351,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -341,7 +363,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -353,7 +375,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>1.3.5 *</t>
+    <t>2.3.5 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -365,7 +387,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.6 *</t>
+    <t>2.3.6 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -401,13 +423,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of  in aerosol model.</t>
@@ -416,7 +438,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -428,7 +450,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -440,7 +462,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -452,7 +474,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -461,7 +483,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
@@ -470,7 +492,7 @@
     <t>cmip6.aerosol.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -479,7 +501,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -491,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -503,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -515,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>1.5.6 *</t>
+    <t>2.5.6 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -527,7 +549,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -536,7 +558,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
@@ -545,7 +567,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.6.2 *</t>
+    <t>2.6.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -557,7 +579,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -569,7 +591,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -581,7 +603,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -593,7 +615,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -602,7 +624,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -611,7 +633,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -620,7 +642,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -632,7 +654,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -641,7 +663,7 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
@@ -650,13 +672,13 @@
     <t>cmip6.aerosol.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -665,19 +687,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.2.6 *</t>
+    <t>3.2.6 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -686,7 +708,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -695,7 +717,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -704,7 +726,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -713,7 +735,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -740,7 +762,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -761,7 +783,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -779,7 +801,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -788,7 +810,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -797,7 +819,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -806,7 +828,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>5.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -833,7 +855,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">5.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -869,7 +891,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.5 </t>
+    <t xml:space="preserve">5.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -896,7 +918,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.6 </t>
+    <t xml:space="preserve">5.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -908,7 +930,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.7 </t>
+    <t xml:space="preserve">5.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -920,7 +942,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.8 </t>
+    <t xml:space="preserve">5.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -932,7 +954,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.9 </t>
+    <t xml:space="preserve">5.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -944,7 +966,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.10 </t>
+    <t xml:space="preserve">5.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -956,7 +978,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -965,7 +987,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -974,7 +996,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -983,7 +1005,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -995,10 +1017,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t>No limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">6.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1010,7 +1029,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">6.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1022,7 +1041,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">6.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1034,7 +1053,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1043,7 +1062,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1052,7 +1071,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1061,7 +1080,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1070,7 +1089,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.1 </t>
+    <t xml:space="preserve">7.2.1 </t>
   </si>
   <si>
     <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
@@ -1079,7 +1098,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.2 </t>
+    <t xml:space="preserve">7.2.2 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1094,7 +1113,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.3 </t>
+    <t xml:space="preserve">7.2.3 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1106,7 +1125,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.4 </t>
+    <t xml:space="preserve">7.2.4 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1118,19 +1137,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>6.3</t>
+    <t>7.3</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.1 </t>
+    <t xml:space="preserve">7.3.1 </t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
   </si>
   <si>
-    <t>6.3.2 *</t>
+    <t>7.3.2 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1142,7 +1161,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>6.3.3 *</t>
+    <t>7.3.3 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1154,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4 </t>
+    <t xml:space="preserve">7.3.4 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1166,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>6.4</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1175,7 +1194,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4.1 </t>
+    <t xml:space="preserve">7.4.1 </t>
   </si>
   <si>
     <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
@@ -1184,7 +1203,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
   </si>
   <si>
-    <t>6.4.2 *</t>
+    <t>7.4.2 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1196,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>6.4.3 *</t>
+    <t>7.4.3 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1208,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>6.4.4 *</t>
+    <t>7.4.4 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1220,7 +1239,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>6.5</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1229,7 +1248,7 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5.1 </t>
+    <t xml:space="preserve">7.5.1 </t>
   </si>
   <si>
     <t>Overview of radiative scheme for aerosol in aerosol model.</t>
@@ -1238,13 +1257,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>6.5.2 *</t>
+    <t>7.5.2 *</t>
   </si>
   <si>
     <t>Overview of radiative scheme</t>
   </si>
   <si>
-    <t>6.5.3 *</t>
+    <t>7.5.3 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1256,7 +1275,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>6.5.4 *</t>
+    <t>7.5.4 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1268,7 +1287,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>7.6</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1277,7 +1296,7 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.1 </t>
+    <t xml:space="preserve">7.6.1 </t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions in aerosol model.</t>
@@ -1286,13 +1305,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>6.6.2 *</t>
+    <t>7.6.2 *</t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
-    <t>6.6.3 *</t>
+    <t>7.6.3 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1304,7 +1323,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.4 </t>
+    <t xml:space="preserve">7.6.4 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1316,7 +1335,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>6.6.5 *</t>
+    <t>7.6.5 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1328,7 +1347,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>6.6.6 *</t>
+    <t>7.6.6 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1340,19 +1359,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>6.6.7 *</t>
+    <t>7.6.7 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1361,7 +1380,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>7.1.2 *</t>
+    <t>8.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1370,7 +1389,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>7.1.3 *</t>
+    <t>8.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1382,36 +1401,36 @@
     <t>cmip6.aerosol.model.processes</t>
   </si>
   <si>
+    <t>Dry deposition</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Wet deposition (impaction scavenging)</t>
+  </si>
+  <si>
+    <t>Wet deposition (nucleation scavenging)</t>
+  </si>
+  <si>
+    <t>Coagulation</t>
+  </si>
+  <si>
+    <t>Oxidation (gas phase)</t>
+  </si>
+  <si>
+    <t>Oxidation (in cloud)</t>
+  </si>
+  <si>
+    <t>Condensation</t>
+  </si>
+  <si>
+    <t>Ageing</t>
+  </si>
+  <si>
     <t>Advection (horizontal)</t>
   </si>
   <si>
-    <t>Dry deposition</t>
-  </si>
-  <si>
-    <t>Sedimentation</t>
-  </si>
-  <si>
-    <t>Wet deposition (impaction scavenging)</t>
-  </si>
-  <si>
-    <t>Wet deposition (nucleation scavenging)</t>
-  </si>
-  <si>
-    <t>Coagulation</t>
-  </si>
-  <si>
-    <t>Oxidation (gas phase)</t>
-  </si>
-  <si>
-    <t>Oxidation (in cloud)</t>
-  </si>
-  <si>
-    <t>Condensation</t>
-  </si>
-  <si>
-    <t>Ageing</t>
-  </si>
-  <si>
     <t>Advection (vertical)</t>
   </si>
   <si>
@@ -1421,7 +1440,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1433,15 +1452,15 @@
     <t>cmip6.aerosol.model.coupling</t>
   </si>
   <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Land surface</t>
+  </si>
+  <si>
     <t>Clouds</t>
   </si>
   <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Land surface</t>
-  </si>
-  <si>
     <t>Ocean</t>
   </si>
   <si>
@@ -1451,7 +1470,7 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1487,7 +1506,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1499,16 +1518,16 @@
     <t>cmip6.aerosol.model.scheme_type</t>
   </si>
   <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
     <t>Bin</t>
   </si>
   <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Modal</t>
-  </si>
-  <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1560,7 +1579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,9 +1621,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1629,14 +1647,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1686,7 +1712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1703,10 +1729,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1718,11 +1741,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2018,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD18"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2104,25 +2133,39 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2130,7 +2173,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD162"/>
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2143,979 +2260,942 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>23</v>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>39</v>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
+      <c r="A18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="B22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>55</v>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="27" spans="1:31" ht="24" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="B29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
+      <c r="B30" s="11"/>
+      <c r="AA30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>50</v>
+    </row>
+    <row r="32" spans="1:31" ht="24" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>17</v>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>1</v>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="7" t="s">
-        <v>75</v>
+      <c r="B42" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>77</v>
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>85</v>
+        <v>28</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B54" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="B60" s="7" t="s">
-        <v>90</v>
+      <c r="B59" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="65" spans="1:30" ht="24" customHeight="1">
+      <c r="A65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA68" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB68" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD68" s="5" t="s">
-        <v>50</v>
+      <c r="B67" s="11"/>
+      <c r="AA67" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD67" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
+      <c r="B71" s="11"/>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>107</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>111</v>
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="B80" s="11"/>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="81" spans="1:35" ht="24" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>115</v>
+        <v>53</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" ht="24" customHeight="1">
-      <c r="B84" s="11"/>
-      <c r="AA84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB84" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC84" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD84" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE84" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF84" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG84" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH84" s="5" t="s">
+      <c r="B83" s="11"/>
+      <c r="AA83" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AI84" s="5" t="s">
-        <v>50</v>
+      <c r="AB83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC83" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE83" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH83" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI83" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" ht="24" customHeight="1">
+      <c r="A86" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:35" ht="24" customHeight="1">
-      <c r="B88" s="7"/>
+      <c r="B87" s="13"/>
+    </row>
+    <row r="89" spans="1:35" ht="24" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B91" s="11"/>
+    </row>
+    <row r="93" spans="1:35" ht="24" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>132</v>
+        <v>28</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B95" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B96" s="11"/>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B100" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
+      <c r="B101" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>140</v>
+        <v>73</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="11"/>
+      <c r="B105" s="11"/>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="7" t="s">
-        <v>145</v>
+      <c r="B109" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B113" s="11"/>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B117" s="11"/>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>153</v>
+        <v>28</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="A123" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>157</v>
+        <v>73</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>161</v>
+        <v>73</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="A131" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>165</v>
+        <v>78</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
+      <c r="B133" s="11"/>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="A136" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="7" t="s">
-        <v>170</v>
+      <c r="B137" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
+      <c r="B141" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>175</v>
+        <v>28</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B145" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="178" customHeight="1">
-      <c r="B147" s="11"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="178" customHeight="1">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>179</v>
+        <v>28</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B150" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B151" s="11"/>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="A153" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>183</v>
+        <v>28</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B155" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="B156" s="11"/>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="A158" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>187</v>
+        <v>28</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B160" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="24" customHeight="1">
-      <c r="B161" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
+      <c r="B161" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AE22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AC30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AC31</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AD68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>AA67:AD67</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
-      <formula1>AA84:AI84</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>AA83:AI83</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3123,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3138,229 +3218,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>191</v>
+      <c r="A1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>192</v>
+      <c r="B2" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>195</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>198</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>200</v>
+      <c r="A13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>202</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>204</v>
+      <c r="A18" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>205</v>
+      <c r="B19" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
+      <c r="A21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="A25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>210</v>
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>153</v>
+      <c r="A29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>213</v>
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>157</v>
+      <c r="A33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>215</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>161</v>
+      <c r="A37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>217</v>
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>165</v>
+      <c r="A41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>220</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3385,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD25"/>
   <sheetViews>
@@ -3400,183 +3480,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>222</v>
+      <c r="A1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>223</v>
+      <c r="B2" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>226</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>229</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>231</v>
+      <c r="A13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>233</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>240</v>
+      <c r="A17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>242</v>
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>45</v>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>247</v>
+      <c r="A22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>249</v>
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="12" t="s">
-        <v>45</v>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD49"/>
   <sheetViews>
@@ -3610,331 +3690,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>253</v>
+      <c r="A1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>254</v>
+      <c r="B2" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>257</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>260</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>95</v>
+      <c r="A13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>263</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>271</v>
+      <c r="A18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>273</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>283</v>
+      <c r="A23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>285</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>292</v>
+      <c r="A27" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>294</v>
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>34</v>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>296</v>
+      <c r="A32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>298</v>
+      <c r="A33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
+      <c r="B34" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>300</v>
+      <c r="A37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>302</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="12" t="s">
-        <v>34</v>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>304</v>
+      <c r="A42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>306</v>
+      <c r="A43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>34</v>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>308</v>
+      <c r="A47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>310</v>
+      <c r="A48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -3956,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
@@ -3971,174 +4051,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>312</v>
+      <c r="A1" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>313</v>
+      <c r="B2" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>316</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>319</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>321</v>
+      <c r="A13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>323</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>324</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>326</v>
+      <c r="A18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>328</v>
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>34</v>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>324</v>
-      </c>
+      <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>330</v>
+      <c r="A23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>332</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>34</v>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>334</v>
+      <c r="A28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>336</v>
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>34</v>
+      <c r="B30" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4149,7 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
@@ -4164,641 +4240,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>338</v>
+      <c r="A1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>339</v>
+      <c r="B2" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>342</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>345</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>347</v>
+      <c r="A14" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>348</v>
+      <c r="B15" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
+      <c r="A17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>351</v>
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>353</v>
+      <c r="A21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>356</v>
+      <c r="A22" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>358</v>
+      <c r="A25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>360</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>362</v>
+      <c r="A29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>364</v>
+      <c r="A30" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>366</v>
+      <c r="A34" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>36</v>
+      <c r="A37" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>368</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>370</v>
+      <c r="A41" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>372</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>374</v>
+      <c r="A45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>376</v>
+      <c r="A46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>378</v>
+      <c r="A49" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>380</v>
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>382</v>
+      <c r="A54" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="7" t="s">
-        <v>383</v>
+      <c r="B55" s="13" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>36</v>
+      <c r="A57" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>386</v>
+      <c r="A58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>388</v>
+      <c r="A61" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>390</v>
+      <c r="A62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>392</v>
+      <c r="A65" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>394</v>
+      <c r="A66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>396</v>
+      <c r="A69" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>398</v>
+      <c r="A70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>400</v>
+      <c r="A74" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="7" t="s">
-        <v>401</v>
+      <c r="B75" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>36</v>
+      <c r="A77" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>404</v>
+      <c r="A78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>36</v>
+      <c r="A81" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>404</v>
+      <c r="A82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="12" t="s">
-        <v>39</v>
+      <c r="B83" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="178" customHeight="1">
       <c r="B84" s="11"/>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>408</v>
+      <c r="A86" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>410</v>
+      <c r="A87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>412</v>
+      <c r="A90" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>414</v>
+      <c r="A91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>416</v>
+      <c r="A95" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="7" t="s">
-        <v>417</v>
+      <c r="B96" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>36</v>
+      <c r="A98" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>420</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>36</v>
+      <c r="A102" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>420</v>
+      <c r="A103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>39</v>
+      <c r="B104" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>424</v>
+      <c r="A107" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>426</v>
+      <c r="A108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>428</v>
+      <c r="A111" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>430</v>
+      <c r="A112" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>432</v>
+      <c r="A115" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>434</v>
+      <c r="A116" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>436</v>
+      <c r="A119" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>438</v>
+      <c r="A120" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>412</v>
+      <c r="A123" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>440</v>
+      <c r="A124" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4859,9 +4935,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD47"/>
+  <dimension ref="A1:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4874,833 +4950,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>442</v>
+      <c r="B2" s="13" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>445</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>448</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>450</v>
+      <c r="A13" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>452</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>453</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" ht="24" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="24" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD18" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM18" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH19" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM19" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="24" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH20" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM20" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>460</v>
-      </c>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="24" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="24" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="24" customHeight="1">
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="24" customHeight="1">
+      <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM21" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="24" customHeight="1">
-      <c r="B22" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF22" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH22" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM22" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF23" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG23" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH23" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI23" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM23" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF24" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH24" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM24" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" ht="24" customHeight="1">
-      <c r="B29" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA29" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD29" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE29" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="AF29" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG29" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH29" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA30" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD30" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE30" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="AF30" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG30" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>477</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="24" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="24" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="24" customHeight="1">
+      <c r="B25" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="24" customHeight="1">
+      <c r="B26" s="11"/>
+      <c r="AA26" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE26" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH26" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="24" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="24" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+      <c r="AA31" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>479</v>
+      <c r="A33" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="B34" s="12" t="s">
-        <v>45</v>
+      <c r="A34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="AD35" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE35" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF35" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="AG35" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH35" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI35" s="5" t="s">
-        <v>50</v>
+      <c r="B35" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>481</v>
-      </c>
+      <c r="B36" s="11"/>
       <c r="AA36" s="5" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="AH36" s="5" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" ht="24" customHeight="1">
-      <c r="B40" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD41" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" ht="24" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB42" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC42" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD42" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="24" customHeight="1">
-      <c r="B46" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
-      <c r="AA47" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AB47" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AC47" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD47" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="AE47" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AF47" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="AG47" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AH47" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI47" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AJ47" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="AK47" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="AL47" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AM47" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AN47" s="5" t="s">
-        <v>50</v>
+        <v>512</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM36" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN36" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="16">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>AA17:AM17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AH21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>AA18:AM18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AI26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AM19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AM20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AM21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AM22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AM23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AM24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AH29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AI35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AD31</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AI36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>AA41:AD41</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AD42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>AA47:AN47</formula1>
+      <formula1>AA36:AN36</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -45,7 +45,7 @@
     <t>MIROC6</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Aerosol</t>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -8,21 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="495">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,31 +51,28 @@
     <t>Aerosol</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions</t>
-  </si>
-  <si>
-    <t>6. Concentrations</t>
-  </si>
-  <si>
-    <t>7. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>8. Model</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions</t>
+  </si>
+  <si>
+    <t>5. Concentrations</t>
+  </si>
+  <si>
+    <t>6. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>7. Model</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -96,58 +93,76 @@
     <t>1.0.2</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the aerosol model</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the aerosol model</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -162,7 +177,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -177,7 +192,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -204,10 +219,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -219,7 +234,7 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -237,7 +252,7 @@
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -252,7 +267,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -267,7 +282,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -276,7 +291,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -288,7 +303,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -300,7 +315,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -312,7 +327,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -321,16 +336,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -351,7 +357,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -363,7 +369,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -375,7 +381,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>1.3.1.4 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -387,7 +393,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.6 *</t>
+    <t>1.3.1.5 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -423,22 +429,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.4.1.1 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -450,7 +447,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -462,7 +459,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -474,7 +471,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -483,16 +480,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.5.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -501,7 +489,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -513,7 +501,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -525,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.5.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -537,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.5.6 *</t>
+    <t>1.5.1.5 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -549,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>1.6.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -558,16 +546,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.6.2 *</t>
+    <t>1.6.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -579,7 +558,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.3 </t>
+    <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -591,7 +570,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.4 </t>
+    <t xml:space="preserve">1.6.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -603,7 +582,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">1.6.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -615,7 +594,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -624,7 +603,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -633,7 +612,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -642,7 +621,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -654,7 +633,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -663,22 +642,13 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -687,19 +657,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>3.2.6 *</t>
+    <t>2.2.1.5 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -708,7 +678,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -717,7 +687,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -726,7 +696,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -735,7 +705,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -762,7 +732,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>4.1.4 *</t>
+    <t>3.1.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -783,7 +753,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>4.1.5 *</t>
+    <t>3.1.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -801,7 +771,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -810,7 +780,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -819,7 +789,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -828,7 +798,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>4.1.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -855,7 +825,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">4.1.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -891,7 +861,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">4.1.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -918,7 +888,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">4.1.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -930,7 +900,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.7 </t>
+    <t xml:space="preserve">4.1.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -942,7 +912,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.8 </t>
+    <t xml:space="preserve">4.1.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -954,7 +924,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.9 </t>
+    <t xml:space="preserve">4.1.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -966,7 +936,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.10 </t>
+    <t xml:space="preserve">4.1.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -978,7 +948,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -987,7 +957,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -996,7 +966,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -1005,7 +975,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1017,7 +987,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">5.1.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1029,7 +999,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.5 </t>
+    <t xml:space="preserve">5.1.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1041,7 +1011,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.6 </t>
+    <t xml:space="preserve">5.1.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1053,7 +1023,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1062,7 +1032,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1071,7 +1041,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1080,7 +1050,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>7.2</t>
+    <t>6.2.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1089,16 +1059,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.2 </t>
+    <t xml:space="preserve">6.2.1.1 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1113,7 +1074,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.3 </t>
+    <t xml:space="preserve">6.2.1.2 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1125,7 +1086,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.4 </t>
+    <t xml:space="preserve">6.2.1.3 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1137,19 +1098,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>7.3</t>
+    <t>6.3.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.1 </t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
-  </si>
-  <si>
-    <t>7.3.2 *</t>
+    <t>6.3.1.1 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1161,7 +1116,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>7.3.3 *</t>
+    <t>6.3.1.2 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1173,7 +1128,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.4 </t>
+    <t xml:space="preserve">6.3.1.3 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1185,7 +1140,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>7.4</t>
+    <t>6.4.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1194,16 +1149,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4.1 </t>
-  </si>
-  <si>
-    <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
-  </si>
-  <si>
-    <t>7.4.2 *</t>
+    <t>6.4.1.1 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1215,7 +1161,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>7.4.3 *</t>
+    <t>6.4.1.2 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1227,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>7.4.4 *</t>
+    <t>6.4.1.3 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1239,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>7.5</t>
+    <t>6.5.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1248,22 +1194,16 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme for aerosol in aerosol model.</t>
+    <t>6.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of radiative scheme</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>7.5.2 *</t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme</t>
-  </si>
-  <si>
-    <t>7.5.3 *</t>
+    <t>6.5.1.2 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1275,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>7.5.4 *</t>
+    <t>6.5.1.3 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1287,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>7.6</t>
+    <t>6.6.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1296,22 +1236,16 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6.1 </t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions in aerosol model.</t>
+    <t>6.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>7.6.2 *</t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions</t>
-  </si>
-  <si>
-    <t>7.6.3 *</t>
+    <t>6.6.1.2 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1323,7 +1257,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6.4 </t>
+    <t xml:space="preserve">6.6.1.3 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1335,7 +1269,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>7.6.5 *</t>
+    <t>6.6.1.4 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1347,7 +1281,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>7.6.6 *</t>
+    <t>6.6.1.5 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1359,19 +1293,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>7.6.7 *</t>
+    <t>6.6.1.6 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1380,7 +1314,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>8.1.2 *</t>
+    <t>7.1.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1389,7 +1323,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>7.1.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1440,7 +1374,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1470,7 +1404,7 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1506,7 +1440,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1527,7 +1461,7 @@
     <t>Bin</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1579,7 +1513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,13 +1536,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1627,6 +1567,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1634,21 +1581,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1661,8 +1595,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1712,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1726,31 +1673,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2047,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,39 +2083,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2173,320 +2138,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD161"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>45</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>50</v>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>52</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>60</v>
+      <c r="AA21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>66</v>
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
-      <c r="AA30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>60</v>
+      <c r="AA30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
+      <c r="A32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
+      <c r="A33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
+      <c r="A36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
+      <c r="A37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2494,668 +2482,580 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>85</v>
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>87</v>
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="AA63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="24" customHeight="1">
       <c r="B67" s="11"/>
-      <c r="AA67" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="69" spans="1:35" ht="24" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1">
+      <c r="A70" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
+    <row r="73" spans="1:35" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
+    <row r="77" spans="1:35" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="24" customHeight="1">
       <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-      <c r="AA83" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC83" s="5" t="s">
+      <c r="AA79" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD83" s="5" t="s">
+      <c r="AB79" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AE83" s="5" t="s">
+      <c r="AC79" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AF83" s="5" t="s">
+      <c r="AD79" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AG83" s="5" t="s">
+      <c r="AE79" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AH83" s="5" t="s">
+      <c r="AF79" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AI83" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
+      <c r="AG79" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="AH79" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
+      <c r="AI79" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>28</v>
+      <c r="B82" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:35" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="7" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="9" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="B95" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="10" t="s">
-        <v>45</v>
+      <c r="A100" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>147</v>
+      <c r="A103" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>149</v>
+      <c r="A104" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>151</v>
+      <c r="A108" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>47</v>
+      <c r="A111" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>155</v>
+      <c r="A112" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>38</v>
+      <c r="A115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>158</v>
+      <c r="A116" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>160</v>
+      <c r="A119" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>162</v>
+      <c r="A120" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>166</v>
+      <c r="A124" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="11"/>
+      <c r="B125" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>168</v>
+      <c r="A127" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>170</v>
+      <c r="A128" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="B129" s="11"/>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="B129" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="178" customHeight="1">
+      <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>78</v>
+      <c r="A132" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="B133" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>176</v>
-      </c>
+      <c r="A133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="B134" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="13" t="s">
-        <v>177</v>
+      <c r="A137" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>47</v>
+      <c r="B139" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="B141" s="11"/>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>182</v>
+      <c r="A143" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="10" t="s">
+      <c r="B144" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="178" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="11"/>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="B155" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="11"/>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="24" customHeight="1">
-      <c r="B161" s="11"/>
+    <row r="145" spans="2:2" ht="24" customHeight="1">
+      <c r="B145" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="13">
@@ -3171,8 +3071,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AD67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AD63</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>0</formula1>
@@ -3180,22 +3083,19 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AI79</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
-      <formula1>AA83:AI83</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3205,97 +3105,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>202</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>205</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>207</v>
+      <c r="A13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>209</v>
+      <c r="A14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,161 +3203,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
+      <c r="A21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>215</v>
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
+      <c r="A25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>217</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>220</v>
+      <c r="A30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>222</v>
+      <c r="C34" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>224</v>
+      <c r="A38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3474,189 +3352,189 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>233</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>236</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>238</v>
+      <c r="A13" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>240</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
-      <c r="AA15" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>245</v>
+      <c r="AA15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>247</v>
+      <c r="A17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>249</v>
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
-      <c r="AA20" s="5" t="s">
+      <c r="AA20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AB20" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>60</v>
+      <c r="AD20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>254</v>
+      <c r="A22" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>256</v>
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
-      <c r="AA25" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>60</v>
+      <c r="AA25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3684,337 +3562,337 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>264</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>103</v>
+      <c r="A13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>270</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>60</v>
+      <c r="AA16" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>278</v>
+      <c r="A18" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>280</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="24" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="24" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
-      <c r="AA25" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE25" s="5" t="s">
-        <v>297</v>
+      <c r="AA25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>299</v>
+      <c r="A27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>301</v>
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>45</v>
+      <c r="B29" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>303</v>
+      <c r="A32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>305</v>
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>45</v>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>307</v>
+      <c r="A37" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>309</v>
+      <c r="A38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>45</v>
+      <c r="B39" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>311</v>
+      <c r="A42" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>313</v>
+      <c r="A43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>45</v>
+      <c r="B44" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>315</v>
+      <c r="A47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>317</v>
+      <c r="A48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -4045,176 +3923,176 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>323</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>326</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>328</v>
+      <c r="A13" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>330</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>45</v>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>332</v>
+      <c r="A18" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>334</v>
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
-        <v>45</v>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>336</v>
+      <c r="A23" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>338</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
-        <v>45</v>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>340</v>
+      <c r="A28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>342</v>
+      <c r="A29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>45</v>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4227,75 +4105,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD125"/>
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>348</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>351</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4303,585 +4181,479 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
+      <c r="A17" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>357</v>
+      <c r="A18" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>359</v>
+      <c r="A21" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>362</v>
+      <c r="A22" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>364</v>
+      <c r="A25" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>366</v>
+      <c r="A26" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="13"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>376</v>
+      <c r="A41" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>378</v>
+      <c r="A42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>382</v>
+      <c r="A46" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="13" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>384</v>
+      <c r="A49" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>386</v>
+      <c r="A50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>388</v>
+      <c r="A54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="13" t="s">
-        <v>389</v>
-      </c>
+      <c r="B55" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>47</v>
+      <c r="A57" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>392</v>
+      <c r="A58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B79" s="12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="178" customHeight="1">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="7" t="s">
+      <c r="B92" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C92" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="9" t="s">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="7" t="s">
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C96" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="12" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C100" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="13" t="s">
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="7" t="s">
+      <c r="B103" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
@@ -4890,44 +4662,40 @@
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4944,14 +4712,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -4959,335 +4727,335 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>451</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>454</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>456</v>
+      <c r="A13" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>458</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM16" s="5" t="s">
-        <v>471</v>
+      <c r="AA16" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>473</v>
+      <c r="A18" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>475</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>60</v>
+      <c r="AA21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>483</v>
+      <c r="A23" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>485</v>
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11"/>
-      <c r="AA26" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH26" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>60</v>
+      <c r="AA26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>495</v>
+      <c r="A28" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>497</v>
+      <c r="A29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
       <c r="B31" s="11"/>
-      <c r="AA31" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>60</v>
+      <c r="AA31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>502</v>
+      <c r="A33" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>504</v>
+      <c r="A34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="24" customHeight="1">
       <c r="B36" s="11"/>
-      <c r="AA36" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AG36" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH36" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM36" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AN36" s="5" t="s">
-        <v>60</v>
+      <c r="AA36" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Documents/work/project/CMIP6/ES-DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE589BC0-6B14-2C45-8923-10EFE7938D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7920" yWindow="440" windowWidth="23000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
     <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="512">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1507,17 +1513,84 @@
   </si>
   <si>
     <t>STS (supercooled ternary solution aerosol particule)</t>
+  </si>
+  <si>
+    <t>SPRINTARS</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>aerosol transport,aerosol-radiation interaction,aerosol-cloud interaction</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Fortran</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>leap-frog</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T85L81h</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>radiative forcing</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Observational data on mass concentration of each aerosol comonent and aerosol optical thickness from satellite and in-situ are mainly used to tune the aerosol model. The aerosol radiative frocing which can simulated observed trend of the surface air temperature is also focued as a climate model.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
+  </si>
+  <si>
+    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>soil dust,sea salt,DMS</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>A half of BC/OC from anthropogenic sources is internally mixed and the others are externally mixed.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Spectral Radiation-Transport Model for Aerosol Species (SPRINTARS) predicts mass mixing ratios of the main tropospheric aerosols which are black carbon (BC), organic matter (OM), sulfate, soil dust, and sea salt, and the precursor gases of sulfate (sulfur dioxide and dimethylsulfide). SPRINTARS calculates not only the aerosol transport processes of emission, advection, diffusion, sulfur chemistry, wet deposition, dry deposition, and gravitational settling, but also the aerosol-radiation and aerosol-cloud interactions by coupled with the radiation and cloud-precipitation schemes in MIROC. See sections on model description in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>/m^3</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>m^2/g</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The radiative process in MIROC is based on the two-stream discrete ordinate/adding method (Nakajima et al., 2000, doi:10.1364/AO.39.004869). In the radiation scheme, extinction and mass coefficients, asymmetry factor and truncation factor in each band are calculated for aerosols and clouds. The aerosol optical parameters are calculated according to the Mie theory and volume-weighted refractive indices with water for the internal mixture. The wavelength-dependent refractive indices are according to WCP-55 (1983, "Report of the experts meeting on aerosols and their climatic effects") for aerosols and d'Almeida et al. (1991, "Atmospheric Aerosols: Global Climatology and Radiative Characteristics") for water. See section 2.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>A parameterization based on the Köhler theory is introduced for water cloud (Ghan et al., 1997, doi:10.1029/97JD01810; Abdul-Razzak and Ghan, 2000, doi:10.1029/1999JD901161). The cloud droplet effective radius related with the Twomey effect is calculated depending on the prognostic cloud droplet number concentration and cloud water mixing ratio. The Berry's parameterization is adopted for the autoconversion process. The ice crystal number concetration is also treated as a prognostic variable. The homogeneous and heterogeneous freezings are based on Kärcher and Lohmann (2002, doi:10.1029/2001JD000470) and Lohmann and Diehl (2006, doi:10.1175/JAS3662.1), respectively. See section 3.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1614,6 +1687,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1659,7 +1745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1703,17 +1789,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1755,7 +1852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1787,9 +1884,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1821,6 +1936,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1996,24 +2129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2053,37 +2186,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2099,7 +2232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2107,7 +2240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2115,41 +2248,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="20">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2160,7 +2296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2184,11 +2320,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2212,39 +2348,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2280,7 +2417,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2307,7 +2446,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2334,7 +2475,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -2361,7 +2504,9 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AA21" s="6" t="s">
         <v>61</v>
       </c>
@@ -2378,725 +2523,756 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="22" spans="1:31" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:31" ht="24" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="26" spans="1:31" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AA31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="12" t="s">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="13" t="s">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:30" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="B56" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
+      <c r="A59" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
+    <row r="60" spans="1:30" ht="24" customHeight="1">
+      <c r="B60" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
+    <row r="63" spans="1:30" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
+    <row r="64" spans="1:30" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AB63" s="6" t="s">
+      <c r="AA64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AC63" s="6" t="s">
+      <c r="AC64" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AD63" s="6" t="s">
+      <c r="AD64" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+    <row r="66" spans="1:35" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
+    <row r="67" spans="1:35" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="69" spans="1:35" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
+    <row r="68" spans="1:35" ht="24" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
+    <row r="71" spans="1:35" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:35" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
+    <row r="72" spans="1:35" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="75" spans="1:35" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:35" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
+    <row r="76" spans="1:35" ht="24" customHeight="1">
+      <c r="B76" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
+    <row r="79" spans="1:35" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-      <c r="AA79" s="6" t="s">
+    <row r="80" spans="1:35" ht="24" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA80" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AB79" s="6" t="s">
+      <c r="AB80" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AC79" s="6" t="s">
+      <c r="AC80" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AD79" s="6" t="s">
+      <c r="AD80" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AE79" s="6" t="s">
+      <c r="AE80" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AF79" s="6" t="s">
+      <c r="AF80" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AG79" s="6" t="s">
+      <c r="AG80" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AH79" s="6" t="s">
+      <c r="AH80" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AI79" s="6" t="s">
+      <c r="AI80" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B83" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B86" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B101" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B104" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="9" t="s">
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B116" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="14" t="s">
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="9" t="s">
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="11"/>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B125" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B128" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="B130" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
+    <row r="131" spans="1:3" ht="178" customHeight="1">
+      <c r="B131" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="8" t="s">
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="B136" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B138" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B139" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="B140" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="B141" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B143" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B144" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="8" t="s">
+    <row r="145" spans="2:2" ht="24" customHeight="1">
+      <c r="B145" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="24" customHeight="1">
-      <c r="B145" s="11"/>
+    <row r="146" spans="2:2" ht="24" customHeight="1">
+      <c r="B146" s="11" t="s">
+        <v>503</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B22" xr:uid="{7D5E6792-03F0-D54E-9DC1-5EAD689A9EFD}">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AC30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA31:AC31</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B118 B114 B98 B76 B72 B68" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B122" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{00000000-0002-0000-0200-000004000000}">
+      <formula1>AA64:AD64</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AI79</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>AA80:AI80</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3104,17 +3280,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -3199,7 +3375,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
@@ -3234,7 +3412,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
@@ -3322,21 +3502,18 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3344,17 +3521,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
@@ -3439,7 +3616,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>231</v>
       </c>
@@ -3481,7 +3660,9 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>231</v>
       </c>
@@ -3523,7 +3704,9 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>231</v>
       </c>
@@ -3538,14 +3721,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AE20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
   </dataValidations>
@@ -3554,17 +3735,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
@@ -3654,7 +3835,9 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="AA16" s="6" t="s">
         <v>261</v>
       </c>
@@ -3677,237 +3860,514 @@
         <v>65</v>
       </c>
     </row>
+    <row r="17" spans="1:35" ht="24" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
+    <row r="22" spans="1:35" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:35" ht="24" customHeight="1">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="AA21" s="6" t="s">
+    <row r="24" spans="1:35" ht="24" customHeight="1">
+      <c r="B24" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AA24" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB24" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AC24" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD24" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AE24" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AG21" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AH21" s="6" t="s">
+      <c r="AH24" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AI21" s="6" t="s">
+      <c r="AI24" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>289</v>
+      <c r="B27" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>291</v>
+      <c r="B28" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="8" t="s">
-        <v>50</v>
+      <c r="B29" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="24" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="24" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="24" customHeight="1">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="41" spans="1:31" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
+    <row r="42" spans="1:31" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="8" t="s">
+    <row r="43" spans="1:31" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
+    <row r="44" spans="1:31" ht="24" customHeight="1">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="46" spans="1:31" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
+    <row r="47" spans="1:31" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
+    <row r="48" spans="1:31" ht="24" customHeight="1">
+      <c r="B48" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="14" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="8" t="s">
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="B58" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA16:AG16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AI21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:B30" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>AA24:AI24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AE25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>AA34:AE34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3915,17 +4375,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -4099,22 +4559,25 @@
       <c r="B31" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -4192,7 +4655,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="17" spans="1:4" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>345</v>
       </c>
@@ -4200,7 +4663,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:4" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>347</v>
       </c>
@@ -4211,10 +4674,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:4" ht="24" customHeight="1">
+      <c r="B19" s="11">
+        <v>3.097</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>350</v>
       </c>
@@ -4222,7 +4690,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="22" spans="1:4" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>347</v>
       </c>
@@ -4233,10 +4701,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:4" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
+    <row r="25" spans="1:4" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>354</v>
       </c>
@@ -4244,7 +4712,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
+    <row r="26" spans="1:4" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>347</v>
       </c>
@@ -4255,10 +4723,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+    <row r="27" spans="1:4" ht="24" customHeight="1">
+      <c r="B27" s="11">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>358</v>
       </c>
@@ -4266,7 +4739,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+    <row r="31" spans="1:4" ht="24" customHeight="1">
       <c r="B31" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -4289,7 +4762,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
@@ -4311,7 +4786,9 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
@@ -4333,7 +4810,9 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
@@ -4368,7 +4847,9 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
@@ -4390,7 +4871,9 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
@@ -4412,7 +4895,9 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
@@ -4452,7 +4937,9 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
@@ -4474,7 +4961,9 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
+      <c r="B72" s="11">
+        <v>15</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
@@ -4496,7 +4985,9 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
@@ -4511,7 +5002,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+    <row r="82" spans="1:4" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>404</v>
       </c>
@@ -4519,7 +5010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
+    <row r="83" spans="1:4" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>43</v>
       </c>
@@ -4530,15 +5021,17 @@
         <v>406</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
+    <row r="84" spans="1:4" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11"/>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
+    <row r="85" spans="1:4" ht="178" customHeight="1">
+      <c r="B85" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -4546,7 +5039,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+    <row r="88" spans="1:4" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -4557,10 +5050,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
+    <row r="89" spans="1:4" ht="24" customHeight="1">
+      <c r="B89" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>411</v>
       </c>
@@ -4568,7 +5063,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
+    <row r="92" spans="1:4" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
         <v>78</v>
       </c>
@@ -4579,10 +5074,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+    <row r="93" spans="1:4" ht="24" customHeight="1">
+      <c r="B93" s="11">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>415</v>
       </c>
@@ -4590,7 +5090,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+    <row r="96" spans="1:4" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
         <v>83</v>
       </c>
@@ -4602,7 +5102,9 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
@@ -4624,7 +5126,9 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
@@ -4646,56 +5150,21 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B23" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B101 B97 B89 B59 B55 B51 B39" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B105 B93 B76" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4704,17 +5173,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
@@ -4750,7 +5219,9 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4777,7 +5248,9 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -4804,7 +5277,9 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="AA16" s="6" t="s">
         <v>437</v>
       </c>
@@ -4845,235 +5320,951 @@
         <v>449</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+    <row r="17" spans="1:39" ht="24" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="24" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="24" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
+    <row r="26" spans="1:39" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
+    <row r="27" spans="1:39" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="AA21" s="6" t="s">
+    <row r="28" spans="1:39" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AA28" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AC28" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD28" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AE28" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AF28" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AG21" s="6" t="s">
+      <c r="AG28" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AH21" s="6" t="s">
+      <c r="AH28" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="29" spans="1:39" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
+    <row r="36" spans="1:35" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
+    <row r="37" spans="1:35" ht="24" customHeight="1">
+      <c r="B37" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="24" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="AA26" s="6" t="s">
+    <row r="38" spans="1:35" ht="24" customHeight="1">
+      <c r="B38" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AB26" s="6" t="s">
+      <c r="AA38" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB38" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="AC26" s="6" t="s">
+      <c r="AC38" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AD38" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AE38" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AF38" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AG26" s="6" t="s">
+      <c r="AG38" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="AH26" s="6" t="s">
+      <c r="AH38" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AI26" s="6" t="s">
+      <c r="AI38" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
+    <row r="39" spans="1:35" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="24" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="24" customHeight="1">
+      <c r="B41" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD41" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE41" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF41" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG41" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH41" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI41" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
+    <row r="44" spans="1:35" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
+    <row r="45" spans="1:35" ht="24" customHeight="1">
+      <c r="B45" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-      <c r="AA31" s="6" t="s">
+    <row r="46" spans="1:35" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AA46" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB46" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AC31" s="6" t="s">
+      <c r="AC46" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AD46" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
+    <row r="47" spans="1:35" ht="24" customHeight="1">
+      <c r="B47" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD47" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
+    <row r="50" spans="1:40" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
+    <row r="51" spans="1:40" ht="24" customHeight="1">
+      <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="AA36" s="6" t="s">
+    <row r="52" spans="1:40" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AB36" s="6" t="s">
+      <c r="AA52" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB52" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AC36" s="6" t="s">
+      <c r="AC52" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AD52" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="AE36" s="6" t="s">
+      <c r="AE52" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AF36" s="6" t="s">
+      <c r="AF52" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AG36" s="6" t="s">
+      <c r="AG52" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AH36" s="6" t="s">
+      <c r="AH52" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AI36" s="6" t="s">
+      <c r="AI52" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AJ36" s="6" t="s">
+      <c r="AJ52" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AK36" s="6" t="s">
+      <c r="AK52" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AL36" s="6" t="s">
+      <c r="AL52" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AM36" s="6" t="s">
+      <c r="AM52" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AN36" s="6" t="s">
+      <c r="AN52" s="6" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="53" spans="1:40" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN53" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="24" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B23" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AH21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B33" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>AA28:AH28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AI26</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B41" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>AA38:AI38</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B47" xr:uid="{00000000-0002-0000-0800-000003000000}">
+      <formula1>AA46:AD46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AN36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55" xr:uid="{00000000-0002-0000-0800-000004000000}">
+      <formula1>AA52:AN52</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Documents/work/project/CMIP6/ES-DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE589BC0-6B14-2C45-8923-10EFE7938D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E44F6E4-2916-DF4F-BB54-07ACCF079B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="440" windowWidth="23000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="440" windowWidth="23000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="518">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1579,6 +1579,29 @@
   </si>
   <si>
     <t>A parameterization based on the Köhler theory is introduced for water cloud (Ghan et al., 1997, doi:10.1029/97JD01810; Abdul-Razzak and Ghan, 2000, doi:10.1029/1999JD901161). The cloud droplet effective radius related with the Twomey effect is calculated depending on the prognostic cloud droplet number concentration and cloud water mixing ratio. The Berry's parameterization is adopted for the autoconversion process. The ice crystal number concetration is also treated as a prognostic variable. The homogeneous and heterogeneous freezings are based on Kärcher and Lohmann (2002, doi:10.1029/2001JD000470) and Lohmann and Diehl (2006, doi:10.1175/JAS3662.1), respectively. See section 3.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>TTAKEMURA</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_C</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_R</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_M</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -2132,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
@@ -2272,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -2320,9 +2343,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
@@ -2348,9 +2375,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="19">
+      <c r="A17" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19">
+      <c r="A18" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19">
+      <c r="A19" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19">
+      <c r="A20" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
@@ -2358,7 +2413,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Documents/work/project/CMIP6/ES-DOC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E44F6E4-2916-DF4F-BB54-07ACCF079B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="440" windowWidth="23000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
     <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
     <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="511">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -168,6 +162,9 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
+    <t>SPRINTARS</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>aerosol transport,aerosol-radiation interaction,aerosol-cloud interaction</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -198,6 +198,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>Spectral Radiation-Transport Model for Aerosol Species (SPRINTARS) predicts mass mixing ratios of the main tropospheric aerosols which are black carbon (BC), organic matter (OM), sulfate, soil dust, and sea salt, and the precursor gases of sulfate (sulfur dioxide and dimethylsulfide). SPRINTARS calculates not only the aerosol transport processes of emission, advection, diffusion, sulfur chemistry, wet deposition, dry deposition, and gravitational settling, but also the aerosol-radiation and aerosol-cloud interactions by coupled with the radiation and cloud-precipitation schemes in MIROC. See sections on model description in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -216,18 +219,24 @@
     <t>Troposphere</t>
   </si>
   <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
     <t>Stratosphere</t>
   </si>
   <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
     <t>1.1.1.5 *</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -333,6 +345,9 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>Fortran</t>
+  </si>
+  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -411,6 +426,9 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_scheme_type</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Explicit</t>
   </si>
   <si>
@@ -495,6 +513,9 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
+    <t>T85L81h</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
@@ -564,6 +585,9 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t>Observational data on mass concentration of each aerosol comonent and aerosol optical thickness from satellite and in-situ are mainly used to tune the aerosol model. The aerosol radiative frocing which can simulated observed trend of the surface air temperature is also focued as a climate model.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
@@ -576,6 +600,9 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
+    <t>radiative forcing</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.3 </t>
   </si>
   <si>
@@ -588,6 +615,9 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
+    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.4 </t>
   </si>
   <si>
@@ -723,15 +753,15 @@
     <t>cmip6.aerosol.transport.scheme</t>
   </si>
   <si>
+    <t>Specific transport scheme (semi-lagrangian)</t>
+  </si>
+  <si>
     <t>Uses atmospheric chemistry transport scheme</t>
   </si>
   <si>
     <t>Specific transport scheme (eulerian)</t>
   </si>
   <si>
-    <t>Specific transport scheme (semi-lagrangian)</t>
-  </si>
-  <si>
     <t>Specific transport scheme (eulerian and semi-lagrangian)</t>
   </si>
   <si>
@@ -813,12 +843,12 @@
     <t>cmip6.aerosol.emissions.method</t>
   </si>
   <si>
+    <t>Prescribed (climatology)</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Prescribed (climatology)</t>
-  </si>
-  <si>
     <t>Prescribed CMIP6</t>
   </si>
   <si>
@@ -930,6 +960,9 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
+    <t>soil dust,sea salt,DMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.1.1.9 </t>
   </si>
   <si>
@@ -1146,6 +1179,9 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
+    <t>A half of BC/OC from anthropogenic sources is internally mixed and the others are externally mixed.</t>
+  </si>
+  <si>
     <t>6.4.1</t>
   </si>
   <si>
@@ -1209,6 +1245,9 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
+    <t>The radiative process in MIROC is based on the two-stream discrete ordinate/adding method (Nakajima et al., 2000, doi:10.1364/AO.39.004869). In the radiation scheme, extinction and mass coefficients, asymmetry factor and truncation factor in each band are calculated for aerosols and clouds. The aerosol optical parameters are calculated according to the Mie theory and volume-weighted refractive indices with water for the internal mixture. The wavelength-dependent refractive indices are according to WCP-55 (1983, "Report of the experts meeting on aerosols and their climatic effects") for aerosols and d'Almeida et al. (1991, "Atmospheric Aerosols: Global Climatology and Radiative Characteristics") for water. See section 2.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+  </si>
+  <si>
     <t>6.5.1.2 *</t>
   </si>
   <si>
@@ -1251,6 +1290,9 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
+    <t>A parameterization based on the Köhler theory is introduced for water cloud (Ghan et al., 1997, doi:10.1029/97JD01810; Abdul-Razzak and Ghan, 2000, doi:10.1029/1999JD901161). The cloud droplet effective radius related with the Twomey effect is calculated depending on the prognostic cloud droplet number concentration and cloud water mixing ratio. The Berry's parameterization is adopted for the autoconversion process. The ice crystal number concetration is also treated as a prognostic variable. The homogeneous and heterogeneous freezings are based on Kärcher and Lohmann (2002, doi:10.1029/2001JD000470) and Lohmann and Diehl (2006, doi:10.1175/JAS3662.1), respectively. See section 3.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
+  </si>
+  <si>
     <t>6.6.1.2 *</t>
   </si>
   <si>
@@ -1513,107 +1555,17 @@
   </si>
   <si>
     <t>STS (supercooled ternary solution aerosol particule)</t>
-  </si>
-  <si>
-    <t>SPRINTARS</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>aerosol transport,aerosol-radiation interaction,aerosol-cloud interaction</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Fortran</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>leap-frog</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>T85L81h</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>radiative forcing</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Observational data on mass concentration of each aerosol comonent and aerosol optical thickness from satellite and in-situ are mainly used to tune the aerosol model. The aerosol radiative frocing which can simulated observed trend of the surface air temperature is also focued as a climate model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
-  </si>
-  <si>
-    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>soil dust,sea salt,DMS</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>A half of BC/OC from anthropogenic sources is internally mixed and the others are externally mixed.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Spectral Radiation-Transport Model for Aerosol Species (SPRINTARS) predicts mass mixing ratios of the main tropospheric aerosols which are black carbon (BC), organic matter (OM), sulfate, soil dust, and sea salt, and the precursor gases of sulfate (sulfur dioxide and dimethylsulfide). SPRINTARS calculates not only the aerosol transport processes of emission, advection, diffusion, sulfur chemistry, wet deposition, dry deposition, and gravitational settling, but also the aerosol-radiation and aerosol-cloud interactions by coupled with the radiation and cloud-precipitation schemes in MIROC. See sections on model description in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>/m^3</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>m^2/g</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The radiative process in MIROC is based on the two-stream discrete ordinate/adding method (Nakajima et al., 2000, doi:10.1364/AO.39.004869). In the radiation scheme, extinction and mass coefficients, asymmetry factor and truncation factor in each band are calculated for aerosols and clouds. The aerosol optical parameters are calculated according to the Mie theory and volume-weighted refractive indices with water for the internal mixture. The wavelength-dependent refractive indices are according to WCP-55 (1983, "Report of the experts meeting on aerosols and their climatic effects") for aerosols and d'Almeida et al. (1991, "Atmospheric Aerosols: Global Climatology and Radiative Characteristics") for water. See section 2.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>A parameterization based on the Köhler theory is introduced for water cloud (Ghan et al., 1997, doi:10.1029/97JD01810; Abdul-Razzak and Ghan, 2000, doi:10.1029/1999JD901161). The cloud droplet effective radius related with the Twomey effect is calculated depending on the prognostic cloud droplet number concentration and cloud water mixing ratio. The Berry's parameterization is adopted for the autoconversion process. The ice crystal number concetration is also treated as a prognostic variable. The homogeneous and heterogeneous freezings are based on Kärcher and Lohmann (2002, doi:10.1029/2001JD000470) and Lohmann and Diehl (2006, doi:10.1175/JAS3662.1), respectively. See section 3.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>TTAKEMURA</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SPRINTARS_T</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SPRINTARS_C</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SPRINTARS_R</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SPRINTARS_M</t>
-    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1710,19 +1662,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1768,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1812,28 +1751,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1875,7 +1803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1907,27 +1835,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1959,24 +1869,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2152,24 +2044,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2201,7 +2093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2209,37 +2101,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2247,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +2147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2263,7 +2155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2271,44 +2163,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="20">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2319,7 +2208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2343,15 +2232,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2375,68 +2260,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19">
-      <c r="A17" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19">
-      <c r="A18" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19">
-      <c r="A19" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19">
-      <c r="A20" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2473,15 +2329,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>495</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2489,28 +2345,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>496</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2518,39 +2374,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>507</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2560,50 +2416,50 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
@@ -2611,34 +2467,34 @@
         <v>43</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>497</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
@@ -2648,35 +2504,35 @@
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -2686,21 +2542,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -2710,23 +2566,23 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -2734,10 +2590,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -2745,10 +2601,10 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -2756,10 +2612,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
@@ -2767,10 +2623,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -2778,88 +2634,88 @@
         <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>498</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:35" ht="24" customHeight="1">
@@ -2867,21 +2723,21 @@
     </row>
     <row r="70" spans="1:35" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:35" ht="24" customHeight="1">
@@ -2889,21 +2745,21 @@
     </row>
     <row r="74" spans="1:35" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:35" ht="24" customHeight="1">
@@ -2913,64 +2769,61 @@
     </row>
     <row r="78" spans="1:35" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>499</v>
+        <v>134</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AC80" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AE80" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AF80" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AG80" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AH80" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AI80" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -2978,10 +2831,10 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -2989,15 +2842,15 @@
         <v>43</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -3005,10 +2858,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -3016,15 +2869,15 @@
         <v>43</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -3032,21 +2885,21 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -3054,20 +2907,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>42</v>
@@ -3078,23 +2931,23 @@
         <v>43</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="11" t="s">
-        <v>500</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -3102,10 +2955,10 @@
         <v>43</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -3113,21 +2966,21 @@
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -3135,21 +2988,21 @@
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -3157,21 +3010,21 @@
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -3181,23 +3034,23 @@
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -3205,28 +3058,28 @@
         <v>43</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="178" customHeight="1">
       <c r="B131" s="11" t="s">
-        <v>502</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -3234,28 +3087,28 @@
         <v>43</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>501</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -3263,28 +3116,28 @@
         <v>43</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>504</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -3292,42 +3145,63 @@
         <v>43</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="24" customHeight="1">
       <c r="B145" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="24" customHeight="1">
-      <c r="B146" s="11" t="s">
-        <v>503</v>
-      </c>
+      <c r="B146" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B22" xr:uid="{7D5E6792-03F0-D54E-9DC1-5EAD689A9EFD}">
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>AA31:AC31</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B118 B114 B98 B76 B72 B68" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B122" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
       <formula1>AA64:AD64</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
       <formula1>AA80:AI80</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,35 +3209,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3374,10 +3248,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3385,10 +3259,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3396,15 +3270,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3412,21 +3286,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3436,20 +3310,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3460,23 +3334,23 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>500</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3484,10 +3358,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3495,21 +3369,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3517,21 +3391,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3539,36 +3413,39 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3576,35 +3453,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AE25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3615,10 +3492,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
@@ -3626,10 +3503,10 @@
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
@@ -3637,15 +3514,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
@@ -3653,60 +3530,60 @@
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3716,41 +3593,41 @@
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -3759,29 +3636,29 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AE20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
   </dataValidations>
@@ -3790,35 +3667,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3829,10 +3706,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
@@ -3840,10 +3717,10 @@
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
@@ -3851,15 +3728,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
@@ -3867,21 +3744,21 @@
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -3891,125 +3768,125 @@
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
@@ -4019,273 +3896,273 @@
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
@@ -4293,15 +4170,15 @@
         <v>43</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
@@ -4309,10 +4186,10 @@
     </row>
     <row r="41" spans="1:31" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="24" customHeight="1">
@@ -4320,15 +4197,15 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="24" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="24" customHeight="1">
@@ -4336,10 +4213,10 @@
     </row>
     <row r="46" spans="1:31" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="24" customHeight="1">
@@ -4347,28 +4224,28 @@
         <v>43</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="24" customHeight="1">
       <c r="B48" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>505</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4376,15 +4253,15 @@
         <v>43</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4392,10 +4269,10 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -4403,25 +4280,51 @@
         <v>43</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="B58" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AG16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:B30" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AG17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AG18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AG19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AI24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AI25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AI26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AI27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AI28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AI29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AI30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>AA34:AE34</formula1>
     </dataValidation>
   </dataValidations>
@@ -4430,35 +4333,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4469,10 +4372,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4480,10 +4383,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4491,15 +4394,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4507,10 +4410,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4518,15 +4421,15 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
@@ -4534,10 +4437,10 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4545,15 +4448,15 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
@@ -4561,10 +4464,10 @@
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4572,15 +4475,15 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -4588,10 +4491,10 @@
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4599,58 +4502,55 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4661,10 +4561,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4672,10 +4572,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4683,15 +4583,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4699,121 +4599,115 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11">
         <v>3.097</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1">
+    <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11">
-        <v>0.13469999999999999</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1">
+        <v>0.1347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4823,21 +4717,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4847,10 +4741,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4858,47 +4752,47 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>506</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -4908,21 +4802,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4932,21 +4826,21 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4956,23 +4850,23 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4980,39 +4874,39 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>510</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -5022,21 +4916,21 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -5046,114 +4940,111 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="24" customHeight="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="24" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="24" customHeight="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="178" customHeight="1">
-      <c r="B85" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="24" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="24" customHeight="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="24" customHeight="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="24" customHeight="1">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="24" customHeight="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="24" customHeight="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11">
         <v>1</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="24" customHeight="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5163,21 +5054,21 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -5187,39 +5078,74 @@
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11">
-        <v>14</v>
-      </c>
+      <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B23" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B101 B97 B89 B59 B55 B51 B39" xr:uid="{00000000-0002-0000-0700-000003000000}">
+  <dataValidations count="15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B105 B93 B76" xr:uid="{00000000-0002-0000-0700-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5228,22 +5154,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AN55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -5251,12 +5177,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5267,23 +5193,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>495</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
@@ -5291,39 +5217,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>507</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -5333,373 +5259,373 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="24" customHeight="1">
@@ -5709,195 +5635,195 @@
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -5907,149 +5833,149 @@
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
@@ -6059,55 +5985,55 @@
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="24" customHeight="1">
@@ -6116,209 +6042,113 @@
       </c>
     </row>
     <row r="52" spans="1:40" ht="24" customHeight="1">
-      <c r="B52" s="11" t="s">
-        <v>483</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="AH52" s="6" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="AI52" s="6" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="AJ52" s="6" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="AK52" s="6" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="AL52" s="6" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="AM52" s="6" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="AN52" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="24" customHeight="1">
-      <c r="B53" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA53" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB53" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC53" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD53" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE53" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF53" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG53" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH53" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI53" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ53" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK53" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL53" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM53" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AN53" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="24" customHeight="1">
-      <c r="B54" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA54" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC54" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD54" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE54" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF54" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG54" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH54" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI54" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ54" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK54" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL54" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM54" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AN54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" ht="24" customHeight="1">
-      <c r="B55" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA55" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC55" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD55" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE55" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF55" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG55" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH55" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI55" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ55" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK55" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL55" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM55" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AN55" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B23" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B33" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AM17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AM18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AM19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AM20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AM21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AM22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AM23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
       <formula1>AA28:AH28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B41" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AH29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AH30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AH31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>AA38:AI38</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B47" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>AA39:AI39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AI40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>AA41:AI41</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>AA46:AD46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55" xr:uid="{00000000-0002-0000-0800-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+      <formula1>AA47:AD47</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>AA52:AN52</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_aerosol.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Documents/work/project/CMIP6/ES-DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E44F6E4-2916-DF4F-BB54-07ACCF079B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7620" yWindow="440" windowWidth="23000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
     <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="518">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -162,1410 +168,1452 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
+    <t>1.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Keywords associated with aerosol model code</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.keywords</t>
+  </si>
+  <si>
+    <t>NOTE: Please enter a comma seperated list</t>
+  </si>
+  <si>
+    <t>1.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Overview of aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.overview</t>
+  </si>
+  <si>
+    <t>NOTE: Double click to expand if text is too long for cell</t>
+  </si>
+  <si>
+    <t>1.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Scheme Scope</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>Atmospheric domains covered by the aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.scheme_scope</t>
+  </si>
+  <si>
+    <t>Troposphere</t>
+  </si>
+  <si>
+    <t>Stratosphere</t>
+  </si>
+  <si>
+    <t>Mesosphere</t>
+  </si>
+  <si>
+    <t>Whole atmosphere</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Basic Approximations</t>
+  </si>
+  <si>
+    <t>Basic approximations made in the aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.basic_approximations</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Prognostic Variables Form</t>
+  </si>
+  <si>
+    <t>Prognostic variables in the aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
+  </si>
+  <si>
+    <t>3D mass/volume ratio for aerosols</t>
+  </si>
+  <si>
+    <t>3D number concentration for aerosols</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Number Of Tracers</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Number of tracers in the aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.number_of_tracers</t>
+  </si>
+  <si>
+    <t>1.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Family Approach</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Are aerosol calculations generalized into families of species?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.family_approach</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Software Properties</t>
+  </si>
+  <si>
+    <t>Software properties of aerosol code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Location of code for this component.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.software_properties.repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
+    <t>Code Version</t>
+  </si>
+  <si>
+    <t>Code version identifier.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
+  </si>
+  <si>
+    <t>Code Languages</t>
+  </si>
+  <si>
+    <t>Code language(s).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Timestep Framework</t>
+  </si>
+  <si>
+    <t>Physical properties of seawater in ocean</t>
+  </si>
+  <si>
+    <t>1.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Mathematical method deployed to solve the time evolution of the prognostic variables</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
+  </si>
+  <si>
+    <t>Uses atmospheric chemistry time stepping</t>
+  </si>
+  <si>
+    <t>Specific timestepping (operator splitting)</t>
+  </si>
+  <si>
+    <t>Specific timestepping (integrated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.2 </t>
+  </si>
+  <si>
+    <t>Split Operator Advection Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for aerosol advection (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.3 </t>
+  </si>
+  <si>
+    <t>Split Operator Physical Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for aerosol physics (in seconds).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
+  </si>
+  <si>
+    <t>1.3.1.4 *</t>
+  </si>
+  <si>
+    <t>Integrated Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for the aerosol model (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
+  </si>
+  <si>
+    <t>1.3.1.5 *</t>
+  </si>
+  <si>
+    <t>Integrated Scheme Type</t>
+  </si>
+  <si>
+    <t>Specify the type of timestep scheme</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.timestep_framework.integrated_scheme_type</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Semi-implicit</t>
+  </si>
+  <si>
+    <t>Semi-analytic</t>
+  </si>
+  <si>
+    <t>Impact solver</t>
+  </si>
+  <si>
+    <t>Back Euler</t>
+  </si>
+  <si>
+    <t>Newton Raphson</t>
+  </si>
+  <si>
+    <t>Rosenbrock</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Meteorological Forcings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.1 </t>
+  </si>
+  <si>
+    <t>Variables 3D</t>
+  </si>
+  <si>
+    <t>Three dimensional forcing variables, e.g. U, V, W, T, Q, P, conventive mass flux</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.2 </t>
+  </si>
+  <si>
+    <t>Variables 2D</t>
+  </si>
+  <si>
+    <t>Two dimensional forcing variables, e.g. land-sea mask definition</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.3 </t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Frequency with which meteorological forcings are applied (in seconds).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Resolution</t>
+  </si>
+  <si>
+    <t>Resolution in the aerosol model grid</t>
+  </si>
+  <si>
+    <t>1.5.1.1 *</t>
+  </si>
+  <si>
+    <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.resolution.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.2 </t>
+  </si>
+  <si>
+    <t>Canonical Horizontal Resolution</t>
+  </si>
+  <si>
+    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.3 </t>
+  </si>
+  <si>
+    <t>Number Of Horizontal Gridpoints</t>
+  </si>
+  <si>
+    <t>Total number of horizontal (XY) points (or degrees of freedom) on computational grid.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.4 </t>
+  </si>
+  <si>
+    <t>Number Of Vertical Levels</t>
+  </si>
+  <si>
+    <t>Number of vertical levels resolved on computational grid.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
+  </si>
+  <si>
+    <t>1.5.1.5 *</t>
+  </si>
+  <si>
+    <t>Is Adaptive Grid</t>
+  </si>
+  <si>
+    <t>Set to true if the grid resolution changes during execution.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning methodology for aerosol model</t>
+  </si>
+  <si>
+    <t>1.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>General overview description of tuning: explain and motivate the main targets and metrics retained. Document the relative weight given to climate performance metrics versus process oriented metrics, and on the possible conflicts with parameterization level tuning. In particular describe any struggle with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Global Mean Metrics Used</t>
+  </si>
+  <si>
+    <t>List of metrics of the global mean state used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Regional Metrics Used</t>
+  </si>
+  <si>
+    <t>List of metrics of regional mean state used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Trend Metrics Used</t>
+  </si>
+  <si>
+    <t>List observed trend metrics used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Aerosol grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Name of grid in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of grid in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.overview</t>
+  </si>
+  <si>
+    <t>2.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Matches Atmosphere Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the atmospheric aerosol grid match the atmosphere grid?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Resolution</t>
+  </si>
+  <si>
+    <t>Resolution in the atmospheric aerosol grid</t>
+  </si>
+  <si>
+    <t>2.2.1.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.resolution.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.2 </t>
+  </si>
+  <si>
+    <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.3 </t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.4 </t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
+  </si>
+  <si>
+    <t>2.2.1.5 *</t>
+  </si>
+  <si>
+    <t>Set to true if grid resolution changes during execution.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Aerosol transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the transport in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of aerosol transport in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.overview</t>
+  </si>
+  <si>
+    <t>3.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Method for aerosol transport modelling</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.scheme</t>
+  </si>
+  <si>
+    <t>Uses atmospheric chemistry transport scheme</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (eulerian)</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (semi-lagrangian)</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (eulerian and semi-lagrangian)</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (lagrangian)</t>
+  </si>
+  <si>
+    <t>3.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Mass Conservation Scheme</t>
+  </si>
+  <si>
+    <t>Methods used to ensure mass conservation.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.mass_conservation_scheme</t>
+  </si>
+  <si>
+    <t>Mass adjustment</t>
+  </si>
+  <si>
+    <t>Concentrations positivity</t>
+  </si>
+  <si>
+    <t>Gradients monotonicity</t>
+  </si>
+  <si>
+    <t>3.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Convention</t>
+  </si>
+  <si>
+    <t>Transport by convention</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.convention</t>
+  </si>
+  <si>
+    <t>Convective fluxes connected to tracers</t>
+  </si>
+  <si>
+    <t>Vertical velocities connected to tracers</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Atmospheric aerosol emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the emissions in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.overview</t>
+  </si>
+  <si>
+    <t>4.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.method</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Prescribed (climatology)</t>
+  </si>
+  <si>
+    <t>Prescribed CMIP6</t>
+  </si>
+  <si>
+    <t>Prescribed above surface</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>Interactive above surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.4 </t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Sources of the aerosol species are taken into account in the emissions scheme</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.sources</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Volcanos</t>
+  </si>
+  <si>
+    <t>Bare ground</t>
+  </si>
+  <si>
+    <t>Sea surface</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Fires</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Anthropogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.5 </t>
+  </si>
+  <si>
+    <t>Prescribed Climatology</t>
+  </si>
+  <si>
+    <t>Specify the climatology type for aerosol emissions</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.prescribed_climatology</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Interannual</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.6 </t>
+  </si>
+  <si>
+    <t>Prescribed Climatology Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted and prescribed via a climatology</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.7 </t>
+  </si>
+  <si>
+    <t>Prescribed Spatially Uniform Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted  and prescribed as spatially uniform</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.8 </t>
+  </si>
+  <si>
+    <t>Interactive Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted and specified via an interactive method</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.9 </t>
+  </si>
+  <si>
+    <t>Other Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted and specified via an "other method"</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.other_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.10 </t>
+  </si>
+  <si>
+    <t>Other Method Characteristics</t>
+  </si>
+  <si>
+    <t>Characteristics of the "other method" used for aerosol emissions</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.other_method_characteristics</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Concentrations</t>
+  </si>
+  <si>
+    <t>Atmospheric aerosol concentrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the concentrations in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.3 </t>
+  </si>
+  <si>
+    <t>Prescribed Lower Boundary</t>
+  </si>
+  <si>
+    <t>List of species prescribed at the lower boundary.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.4 </t>
+  </si>
+  <si>
+    <t>Prescribed Upper Boundary</t>
+  </si>
+  <si>
+    <t>List of species prescribed at the upper boundary.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Prescribed Fields Mmr</t>
+  </si>
+  <si>
+    <t>List of species prescribed as mass mixing ratios.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.6 </t>
+  </si>
+  <si>
+    <t>Prescribed Fields Aod Plus Ccn</t>
+  </si>
+  <si>
+    <t>List of species prescribed as AOD plus CCNs.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>Aerosol optical and radiative properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the optical radiative properties in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.overview</t>
+  </si>
+  <si>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Absorption</t>
+  </si>
+  <si>
+    <t>Absortion properties in aerosol scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.1 </t>
+  </si>
+  <si>
+    <t>Black Carbon</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>Absorption mass coefficient of black carbon at 550nm (if non-absorbing enter 0)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.2 </t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Absorption mass coefficient of dust at 550nm (if non-absorbing enter 0)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.3 </t>
+  </si>
+  <si>
+    <t>Organics</t>
+  </si>
+  <si>
+    <t>Absorption mass coefficient of organics at 550nm (if non-absorbing enter 0)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Mixtures</t>
+  </si>
+  <si>
+    <t>6.3.1.1 *</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Is there external mixing with respect to chemical composition?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
+  </si>
+  <si>
+    <t>6.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Is there internal mixing with respect to chemical composition?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.1.3 </t>
+  </si>
+  <si>
+    <t>Mixing Rule</t>
+  </si>
+  <si>
+    <t>If there is internal mixing with respect to chemical composition then indicate the mixing rule</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
+  </si>
+  <si>
+    <t>6.4.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
+  </si>
+  <si>
+    <t>The impact of H2O on aerosols</t>
+  </si>
+  <si>
+    <t>6.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Does H2O impact size?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
+  </si>
+  <si>
+    <t>6.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Internal Mixture</t>
+  </si>
+  <si>
+    <t>Does H2O impact aerosol internal mixture?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
+  </si>
+  <si>
+    <t>6.4.1.3 *</t>
+  </si>
+  <si>
+    <t>External Mixture</t>
+  </si>
+  <si>
+    <t>Does H2O impact aerosol external mixture?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
+  </si>
+  <si>
+    <t>6.5.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
+  </si>
+  <si>
+    <t>Radiative scheme for aerosol</t>
+  </si>
+  <si>
+    <t>6.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of radiative scheme</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
+  </si>
+  <si>
+    <t>6.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Shortwave Bands</t>
+  </si>
+  <si>
+    <t>Number of shortwave bands</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
+  </si>
+  <si>
+    <t>6.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Longwave Bands</t>
+  </si>
+  <si>
+    <t>Number of longwave bands</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
+  </si>
+  <si>
+    <t>Aerosol-cloud interactions</t>
+  </si>
+  <si>
+    <t>6.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of aerosol-cloud interactions</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
+  </si>
+  <si>
+    <t>6.6.1.2 *</t>
+  </si>
+  <si>
+    <t>Twomey</t>
+  </si>
+  <si>
+    <t>Is the Twomey effect included?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6.1.3 </t>
+  </si>
+  <si>
+    <t>Twomey Minimum Ccn</t>
+  </si>
+  <si>
+    <t>If the Twomey effect is included, then what is the minimum CCN number?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
+  </si>
+  <si>
+    <t>6.6.1.4 *</t>
+  </si>
+  <si>
+    <t>Drizzle</t>
+  </si>
+  <si>
+    <t>Does the scheme affect drizzle?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
+  </si>
+  <si>
+    <t>6.6.1.5 *</t>
+  </si>
+  <si>
+    <t>Cloud Lifetime</t>
+  </si>
+  <si>
+    <t>Does the scheme affect cloud lifetime?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
+  </si>
+  <si>
+    <t>6.6.1.6 *</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Aerosol model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the model in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.name</t>
+  </si>
+  <si>
+    <t>7.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Overview of atmospheric aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.overview</t>
+  </si>
+  <si>
+    <t>7.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Processes included in the aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.processes</t>
+  </si>
+  <si>
+    <t>Dry deposition</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Wet deposition (impaction scavenging)</t>
+  </si>
+  <si>
+    <t>Wet deposition (nucleation scavenging)</t>
+  </si>
+  <si>
+    <t>Coagulation</t>
+  </si>
+  <si>
+    <t>Oxidation (gas phase)</t>
+  </si>
+  <si>
+    <t>Oxidation (in cloud)</t>
+  </si>
+  <si>
+    <t>Condensation</t>
+  </si>
+  <si>
+    <t>Ageing</t>
+  </si>
+  <si>
+    <t>Advection (horizontal)</t>
+  </si>
+  <si>
+    <t>Advection (vertical)</t>
+  </si>
+  <si>
+    <t>Heterogeneous chemistry</t>
+  </si>
+  <si>
+    <t>Nucleation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.4 </t>
+  </si>
+  <si>
+    <t>Coupling</t>
+  </si>
+  <si>
+    <t>Other model components coupled to the aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.coupling</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Land surface</t>
+  </si>
+  <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Cryosphere</t>
+  </si>
+  <si>
+    <t>Gas phase chemistry</t>
+  </si>
+  <si>
+    <t>7.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Gas Phase Precursors</t>
+  </si>
+  <si>
+    <t>Gas phase aerosol precursors.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.gas_phase_precursors</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>Terpene</t>
+  </si>
+  <si>
+    <t>Isoprene</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>7.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Scheme Type</t>
+  </si>
+  <si>
+    <t>Type(s) of aerosol scheme used by the aerosol model (potentially multiple: some species may be covered by one type of aerosol scheme and other species covered by another type).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.scheme_type</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>7.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Bulk Scheme Species</t>
+  </si>
+  <si>
+    <t>Species covered by the bulk scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.bulk_scheme_species</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Black carbon / soot</t>
+  </si>
+  <si>
+    <t>SOA (secondary organic aerosols)</t>
+  </si>
+  <si>
+    <t>POM (particulate organic matter)</t>
+  </si>
+  <si>
+    <t>Polar stratospheric ice</t>
+  </si>
+  <si>
+    <t>NAT (Nitric acid trihydrate)</t>
+  </si>
+  <si>
+    <t>NAD (Nitric acid dihydrate)</t>
+  </si>
+  <si>
+    <t>STS (supercooled ternary solution aerosol particule)</t>
+  </si>
+  <si>
     <t>SPRINTARS</t>
-  </si>
-  <si>
-    <t>1.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Keywords associated with aerosol model code</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.keywords</t>
-  </si>
-  <si>
-    <t>NOTE: Please enter a comma seperated list</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>aerosol transport,aerosol-radiation interaction,aerosol-cloud interaction</t>
-  </si>
-  <si>
-    <t>1.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Overview of aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.overview</t>
-  </si>
-  <si>
-    <t>NOTE: Double click to expand if text is too long for cell</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Fortran</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>leap-frog</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T85L81h</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>radiative forcing</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Observational data on mass concentration of each aerosol comonent and aerosol optical thickness from satellite and in-situ are mainly used to tune the aerosol model. The aerosol radiative frocing which can simulated observed trend of the surface air temperature is also focued as a climate model.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
+  </si>
+  <si>
+    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>soil dust,sea salt,DMS</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>A half of BC/OC from anthropogenic sources is internally mixed and the others are externally mixed.</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Spectral Radiation-Transport Model for Aerosol Species (SPRINTARS) predicts mass mixing ratios of the main tropospheric aerosols which are black carbon (BC), organic matter (OM), sulfate, soil dust, and sea salt, and the precursor gases of sulfate (sulfur dioxide and dimethylsulfide). SPRINTARS calculates not only the aerosol transport processes of emission, advection, diffusion, sulfur chemistry, wet deposition, dry deposition, and gravitational settling, but also the aerosol-radiation and aerosol-cloud interactions by coupled with the radiation and cloud-precipitation schemes in MIROC. See sections on model description in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
-  </si>
-  <si>
-    <t>1.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Scheme Scope</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>Atmospheric domains covered by the aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.scheme_scope</t>
-  </si>
-  <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
-    <t>troposphere</t>
-  </si>
-  <si>
-    <t>stratosphere</t>
-  </si>
-  <si>
-    <t>mesosphere</t>
-  </si>
-  <si>
-    <t>whole atmosphere</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>1.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Basic Approximations</t>
-  </si>
-  <si>
-    <t>Basic approximations made in the aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.basic_approximations</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Prognostic Variables Form</t>
-  </si>
-  <si>
-    <t>Prognostic variables in the aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
-  </si>
-  <si>
-    <t>3D mass/volume ratio for aerosols</t>
-  </si>
-  <si>
-    <t>3D number concentration for aerosols</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Number Of Tracers</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>Number of tracers in the aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.number_of_tracers</t>
-  </si>
-  <si>
-    <t>1.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Family Approach</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Are aerosol calculations generalized into families of species?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.family_approach</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Software Properties</t>
-  </si>
-  <si>
-    <t>Software properties of aerosol code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Location of code for this component.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.software_properties.repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Code Version</t>
-  </si>
-  <si>
-    <t>Code version identifier.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
-    <t>Code Languages</t>
-  </si>
-  <si>
-    <t>Code language(s).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
-  </si>
-  <si>
-    <t>Fortran</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Timestep Framework</t>
-  </si>
-  <si>
-    <t>Physical properties of seawater in ocean</t>
-  </si>
-  <si>
-    <t>1.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Mathematical method deployed to solve the time evolution of the prognostic variables</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
-  </si>
-  <si>
-    <t>Uses atmospheric chemistry time stepping</t>
-  </si>
-  <si>
-    <t>Specific timestepping (operator splitting)</t>
-  </si>
-  <si>
-    <t>Specific timestepping (integrated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.2 </t>
-  </si>
-  <si>
-    <t>Split Operator Advection Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for aerosol advection (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.3 </t>
-  </si>
-  <si>
-    <t>Split Operator Physical Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for aerosol physics (in seconds).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
-  </si>
-  <si>
-    <t>1.3.1.4 *</t>
-  </si>
-  <si>
-    <t>Integrated Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for the aerosol model (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
-  </si>
-  <si>
-    <t>1.3.1.5 *</t>
-  </si>
-  <si>
-    <t>Integrated Scheme Type</t>
-  </si>
-  <si>
-    <t>Specify the type of timestep scheme</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.integrated_scheme_type</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Semi-implicit</t>
-  </si>
-  <si>
-    <t>Semi-analytic</t>
-  </si>
-  <si>
-    <t>Impact solver</t>
-  </si>
-  <si>
-    <t>Back Euler</t>
-  </si>
-  <si>
-    <t>Newton Raphson</t>
-  </si>
-  <si>
-    <t>Rosenbrock</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Meteorological Forcings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.1 </t>
-  </si>
-  <si>
-    <t>Variables 3D</t>
-  </si>
-  <si>
-    <t>Three dimensional forcing variables, e.g. U, V, W, T, Q, P, conventive mass flux</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.2 </t>
-  </si>
-  <si>
-    <t>Variables 2D</t>
-  </si>
-  <si>
-    <t>Two dimensional forcing variables, e.g. land-sea mask definition</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.3 </t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Frequency with which meteorological forcings are applied (in seconds).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Resolution</t>
-  </si>
-  <si>
-    <t>Resolution in the aerosol model grid</t>
-  </si>
-  <si>
-    <t>1.5.1.1 *</t>
-  </si>
-  <si>
-    <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.name</t>
-  </si>
-  <si>
-    <t>T85L81h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.2 </t>
-  </si>
-  <si>
-    <t>Canonical Horizontal Resolution</t>
-  </si>
-  <si>
-    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.3 </t>
-  </si>
-  <si>
-    <t>Number Of Horizontal Gridpoints</t>
-  </si>
-  <si>
-    <t>Total number of horizontal (XY) points (or degrees of freedom) on computational grid.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.4 </t>
-  </si>
-  <si>
-    <t>Number Of Vertical Levels</t>
-  </si>
-  <si>
-    <t>Number of vertical levels resolved on computational grid.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
-  </si>
-  <si>
-    <t>1.5.1.5 *</t>
-  </si>
-  <si>
-    <t>Is Adaptive Grid</t>
-  </si>
-  <si>
-    <t>Set to true if the grid resolution changes during execution.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Tuning Applied</t>
-  </si>
-  <si>
-    <t>Tuning methodology for aerosol model</t>
-  </si>
-  <si>
-    <t>1.6.1.1 *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>General overview description of tuning: explain and motivate the main targets and metrics retained. Document the relative weight given to climate performance metrics versus process oriented metrics, and on the possible conflicts with parameterization level tuning. In particular describe any struggle with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
-  </si>
-  <si>
-    <t>Observational data on mass concentration of each aerosol comonent and aerosol optical thickness from satellite and in-situ are mainly used to tune the aerosol model. The aerosol radiative frocing which can simulated observed trend of the surface air temperature is also focued as a climate model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Global Mean Metrics Used</t>
-  </si>
-  <si>
-    <t>List of metrics of the global mean state used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
-  </si>
-  <si>
-    <t>radiative forcing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Regional Metrics Used</t>
-  </si>
-  <si>
-    <t>List of metrics of regional mean state used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
-  </si>
-  <si>
-    <t>aerosol optical thickness,mass concentration,Ångström exponent,aerosol single scattering albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Trend Metrics Used</t>
-  </si>
-  <si>
-    <t>List observed trend metrics used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>Aerosol grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Name of grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.overview</t>
-  </si>
-  <si>
-    <t>2.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Matches Atmosphere Grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Does the atmospheric aerosol grid match the atmosphere grid?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Resolution</t>
-  </si>
-  <si>
-    <t>Resolution in the atmospheric aerosol grid</t>
-  </si>
-  <si>
-    <t>2.2.1.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.2 </t>
-  </si>
-  <si>
-    <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.3 </t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.4 </t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
-  </si>
-  <si>
-    <t>2.2.1.5 *</t>
-  </si>
-  <si>
-    <t>Set to true if grid resolution changes during execution.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Aerosol transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the transport in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of aerosol transport in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.overview</t>
-  </si>
-  <si>
-    <t>3.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>Method for aerosol transport modelling</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.scheme</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (semi-lagrangian)</t>
-  </si>
-  <si>
-    <t>Uses atmospheric chemistry transport scheme</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (eulerian)</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (eulerian and semi-lagrangian)</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (lagrangian)</t>
-  </si>
-  <si>
-    <t>3.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Mass Conservation Scheme</t>
-  </si>
-  <si>
-    <t>Methods used to ensure mass conservation.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.mass_conservation_scheme</t>
-  </si>
-  <si>
-    <t>Mass adjustment</t>
-  </si>
-  <si>
-    <t>Concentrations positivity</t>
-  </si>
-  <si>
-    <t>Gradients monotonicity</t>
-  </si>
-  <si>
-    <t>3.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Convention</t>
-  </si>
-  <si>
-    <t>Transport by convention</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.convention</t>
-  </si>
-  <si>
-    <t>Convective fluxes connected to tracers</t>
-  </si>
-  <si>
-    <t>Vertical velocities connected to tracers</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Emissions</t>
-  </si>
-  <si>
-    <t>Atmospheric aerosol emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the emissions in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.overview</t>
-  </si>
-  <si>
-    <t>4.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.method</t>
-  </si>
-  <si>
-    <t>Prescribed (climatology)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Prescribed CMIP6</t>
-  </si>
-  <si>
-    <t>Prescribed above surface</t>
-  </si>
-  <si>
-    <t>Interactive</t>
-  </si>
-  <si>
-    <t>Interactive above surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.4 </t>
-  </si>
-  <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t>Sources of the aerosol species are taken into account in the emissions scheme</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.sources</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Volcanos</t>
-  </si>
-  <si>
-    <t>Bare ground</t>
-  </si>
-  <si>
-    <t>Sea surface</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Fires</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>Anthropogenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.5 </t>
-  </si>
-  <si>
-    <t>Prescribed Climatology</t>
-  </si>
-  <si>
-    <t>Specify the climatology type for aerosol emissions</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.prescribed_climatology</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Interannual</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.6 </t>
-  </si>
-  <si>
-    <t>Prescribed Climatology Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted and prescribed via a climatology</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.7 </t>
-  </si>
-  <si>
-    <t>Prescribed Spatially Uniform Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted  and prescribed as spatially uniform</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.8 </t>
-  </si>
-  <si>
-    <t>Interactive Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted and specified via an interactive method</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
-  </si>
-  <si>
-    <t>soil dust,sea salt,DMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.9 </t>
-  </si>
-  <si>
-    <t>Other Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted and specified via an "other method"</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.other_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.10 </t>
-  </si>
-  <si>
-    <t>Other Method Characteristics</t>
-  </si>
-  <si>
-    <t>Characteristics of the "other method" used for aerosol emissions</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.other_method_characteristics</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Concentrations</t>
-  </si>
-  <si>
-    <t>Atmospheric aerosol concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the concentrations in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.3 </t>
-  </si>
-  <si>
-    <t>Prescribed Lower Boundary</t>
-  </si>
-  <si>
-    <t>List of species prescribed at the lower boundary.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.4 </t>
-  </si>
-  <si>
-    <t>Prescribed Upper Boundary</t>
-  </si>
-  <si>
-    <t>List of species prescribed at the upper boundary.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Prescribed Fields Mmr</t>
-  </si>
-  <si>
-    <t>List of species prescribed as mass mixing ratios.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.6 </t>
-  </si>
-  <si>
-    <t>Prescribed Fields Aod Plus Ccn</t>
-  </si>
-  <si>
-    <t>List of species prescribed as AOD plus CCNs.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>Aerosol optical and radiative properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the optical radiative properties in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.overview</t>
-  </si>
-  <si>
-    <t>6.2.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Absorption</t>
-  </si>
-  <si>
-    <t>Absortion properties in aerosol scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.1 </t>
-  </si>
-  <si>
-    <t>Black Carbon</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>Absorption mass coefficient of black carbon at 550nm (if non-absorbing enter 0)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.2 </t>
-  </si>
-  <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Absorption mass coefficient of dust at 550nm (if non-absorbing enter 0)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.3 </t>
-  </si>
-  <si>
-    <t>Organics</t>
-  </si>
-  <si>
-    <t>Absorption mass coefficient of organics at 550nm (if non-absorbing enter 0)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
-  </si>
-  <si>
-    <t>6.3.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Mixtures</t>
-  </si>
-  <si>
-    <t>6.3.1.1 *</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Is there external mixing with respect to chemical composition?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
-  </si>
-  <si>
-    <t>6.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Is there internal mixing with respect to chemical composition?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3.1.3 </t>
-  </si>
-  <si>
-    <t>Mixing Rule</t>
-  </si>
-  <si>
-    <t>If there is internal mixing with respect to chemical composition then indicate the mixing rule</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
-  </si>
-  <si>
-    <t>A half of BC/OC from anthropogenic sources is internally mixed and the others are externally mixed.</t>
-  </si>
-  <si>
-    <t>6.4.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
-  </si>
-  <si>
-    <t>The impact of H2O on aerosols</t>
-  </si>
-  <si>
-    <t>6.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Does H2O impact size?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
-  </si>
-  <si>
-    <t>6.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Internal Mixture</t>
-  </si>
-  <si>
-    <t>Does H2O impact aerosol internal mixture?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
-  </si>
-  <si>
-    <t>6.4.1.3 *</t>
-  </si>
-  <si>
-    <t>External Mixture</t>
-  </si>
-  <si>
-    <t>Does H2O impact aerosol external mixture?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
-  </si>
-  <si>
-    <t>6.5.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
-  </si>
-  <si>
-    <t>Radiative scheme for aerosol</t>
-  </si>
-  <si>
-    <t>6.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>/m^3</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>m^2/g</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>The radiative process in MIROC is based on the two-stream discrete ordinate/adding method (Nakajima et al., 2000, doi:10.1364/AO.39.004869). In the radiation scheme, extinction and mass coefficients, asymmetry factor and truncation factor in each band are calculated for aerosols and clouds. The aerosol optical parameters are calculated according to the Mie theory and volume-weighted refractive indices with water for the internal mixture. The wavelength-dependent refractive indices are according to WCP-55 (1983, "Report of the experts meeting on aerosols and their climatic effects") for aerosols and d'Almeida et al. (1991, "Atmospheric Aerosols: Global Climatology and Radiative Characteristics") for water. See section 2.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
-  </si>
-  <si>
-    <t>6.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Shortwave Bands</t>
-  </si>
-  <si>
-    <t>Number of shortwave bands</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
-  </si>
-  <si>
-    <t>6.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Longwave Bands</t>
-  </si>
-  <si>
-    <t>Number of longwave bands</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
-  </si>
-  <si>
-    <t>6.6.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions</t>
-  </si>
-  <si>
-    <t>6.6.1.1 *</t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>A parameterization based on the Köhler theory is introduced for water cloud (Ghan et al., 1997, doi:10.1029/97JD01810; Abdul-Razzak and Ghan, 2000, doi:10.1029/1999JD901161). The cloud droplet effective radius related with the Twomey effect is calculated depending on the prognostic cloud droplet number concentration and cloud water mixing ratio. The Berry's parameterization is adopted for the autoconversion process. The ice crystal number concetration is also treated as a prognostic variable. The homogeneous and heterogeneous freezings are based on Kärcher and Lohmann (2002, doi:10.1029/2001JD000470) and Lohmann and Diehl (2006, doi:10.1175/JAS3662.1), respectively. See section 3.2 in Takemura (2018, http://www.cger.nies.go.jp/publications/report/i138/i138.pdf) for furtther details.</t>
-  </si>
-  <si>
-    <t>6.6.1.2 *</t>
-  </si>
-  <si>
-    <t>Twomey</t>
-  </si>
-  <si>
-    <t>Is the Twomey effect included?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6.1.3 </t>
-  </si>
-  <si>
-    <t>Twomey Minimum Ccn</t>
-  </si>
-  <si>
-    <t>If the Twomey effect is included, then what is the minimum CCN number?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
-  </si>
-  <si>
-    <t>6.6.1.4 *</t>
-  </si>
-  <si>
-    <t>Drizzle</t>
-  </si>
-  <si>
-    <t>Does the scheme affect drizzle?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
-  </si>
-  <si>
-    <t>6.6.1.5 *</t>
-  </si>
-  <si>
-    <t>Cloud Lifetime</t>
-  </si>
-  <si>
-    <t>Does the scheme affect cloud lifetime?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
-  </si>
-  <si>
-    <t>6.6.1.6 *</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>Aerosol model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the model in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.name</t>
-  </si>
-  <si>
-    <t>7.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Overview of atmospheric aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.overview</t>
-  </si>
-  <si>
-    <t>7.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Processes</t>
-  </si>
-  <si>
-    <t>Processes included in the aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.processes</t>
-  </si>
-  <si>
-    <t>Dry deposition</t>
-  </si>
-  <si>
-    <t>Sedimentation</t>
-  </si>
-  <si>
-    <t>Wet deposition (impaction scavenging)</t>
-  </si>
-  <si>
-    <t>Wet deposition (nucleation scavenging)</t>
-  </si>
-  <si>
-    <t>Coagulation</t>
-  </si>
-  <si>
-    <t>Oxidation (gas phase)</t>
-  </si>
-  <si>
-    <t>Oxidation (in cloud)</t>
-  </si>
-  <si>
-    <t>Condensation</t>
-  </si>
-  <si>
-    <t>Ageing</t>
-  </si>
-  <si>
-    <t>Advection (horizontal)</t>
-  </si>
-  <si>
-    <t>Advection (vertical)</t>
-  </si>
-  <si>
-    <t>Heterogeneous chemistry</t>
-  </si>
-  <si>
-    <t>Nucleation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.4 </t>
-  </si>
-  <si>
-    <t>Coupling</t>
-  </si>
-  <si>
-    <t>Other model components coupled to the aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.coupling</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Land surface</t>
-  </si>
-  <si>
-    <t>Clouds</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Cryosphere</t>
-  </si>
-  <si>
-    <t>Gas phase chemistry</t>
-  </si>
-  <si>
-    <t>7.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Gas Phase Precursors</t>
-  </si>
-  <si>
-    <t>Gas phase aerosol precursors.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.gas_phase_precursors</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Iodine</t>
-  </si>
-  <si>
-    <t>Terpene</t>
-  </si>
-  <si>
-    <t>Isoprene</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>7.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Scheme Type</t>
-  </si>
-  <si>
-    <t>Type(s) of aerosol scheme used by the aerosol model (potentially multiple: some species may be covered by one type of aerosol scheme and other species covered by another type).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.scheme_type</t>
-  </si>
-  <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Modal</t>
-  </si>
-  <si>
-    <t>Bin</t>
-  </si>
-  <si>
-    <t>7.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Bulk Scheme Species</t>
-  </si>
-  <si>
-    <t>Species covered by the bulk scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.bulk_scheme_species</t>
-  </si>
-  <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>Black carbon / soot</t>
-  </si>
-  <si>
-    <t>SOA (secondary organic aerosols)</t>
-  </si>
-  <si>
-    <t>POM (particulate organic matter)</t>
-  </si>
-  <si>
-    <t>Polar stratospheric ice</t>
-  </si>
-  <si>
-    <t>NAT (Nitric acid trihydrate)</t>
-  </si>
-  <si>
-    <t>NAD (Nitric acid dihydrate)</t>
-  </si>
-  <si>
-    <t>STS (supercooled ternary solution aerosol particule)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>TTAKEMURA</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_C</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_R</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SPRINTARS_M</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1662,6 +1710,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1707,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1751,17 +1812,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1803,7 +1875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1835,9 +1907,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1869,6 +1959,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2044,24 +2152,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2101,37 +2209,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2139,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2163,41 +2271,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="20">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2232,11 +2343,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2260,39 +2375,68 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="19">
+      <c r="A17" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19">
+      <c r="A18" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19">
+      <c r="A19" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19">
+      <c r="A20" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2329,15 +2473,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2345,28 +2489,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>52</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2374,39 +2518,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>58</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2416,50 +2560,50 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AE21" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AA22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE22" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
@@ -2467,34 +2611,34 @@
         <v>43</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
@@ -2504,35 +2648,35 @@
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -2542,21 +2686,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -2566,23 +2710,23 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -2590,10 +2734,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -2601,10 +2745,10 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -2612,10 +2756,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
@@ -2623,10 +2767,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -2634,88 +2778,88 @@
         <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>107</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:35" ht="24" customHeight="1">
@@ -2723,21 +2867,21 @@
     </row>
     <row r="70" spans="1:35" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:35" ht="24" customHeight="1">
@@ -2745,21 +2889,21 @@
     </row>
     <row r="74" spans="1:35" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:35" ht="24" customHeight="1">
@@ -2769,61 +2913,64 @@
     </row>
     <row r="78" spans="1:35" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA80" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE80" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF80" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH80" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA80" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB80" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC80" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD80" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE80" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF80" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG80" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH80" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="AI80" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -2831,10 +2978,10 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -2842,15 +2989,15 @@
         <v>43</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -2858,10 +3005,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -2869,15 +3016,15 @@
         <v>43</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -2885,21 +3032,21 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -2907,20 +3054,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>42</v>
@@ -2931,23 +3078,23 @@
         <v>43</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="11" t="s">
-        <v>163</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -2955,10 +3102,10 @@
         <v>43</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -2966,21 +3113,21 @@
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -2988,21 +3135,21 @@
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -3010,21 +3157,21 @@
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -3034,23 +3181,23 @@
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -3058,28 +3205,28 @@
         <v>43</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="178" customHeight="1">
       <c r="B131" s="11" t="s">
-        <v>187</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -3087,28 +3234,28 @@
         <v>43</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>192</v>
+        <v>501</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -3116,28 +3263,28 @@
         <v>43</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>197</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -3145,63 +3292,42 @@
         <v>43</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="24" customHeight="1">
       <c r="B145" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
+      <c r="B146" s="11" t="s">
+        <v>503</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B22" xr:uid="{7D5E6792-03F0-D54E-9DC1-5EAD689A9EFD}">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AE22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA31:AC31</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B118 B114 B98 B76 B72 B68" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B122" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>AA64:AD64</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>AA80:AI80</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,35 +3335,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3248,10 +3374,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3259,10 +3385,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3270,15 +3396,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3286,21 +3412,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3310,20 +3436,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3334,23 +3460,23 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>163</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3358,10 +3484,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3369,21 +3495,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3391,21 +3517,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3413,39 +3539,36 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3453,35 +3576,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3492,10 +3615,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
@@ -3503,10 +3626,10 @@
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
@@ -3514,15 +3637,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
@@ -3530,60 +3653,60 @@
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3593,41 +3716,41 @@
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -3636,29 +3759,29 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AE20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
   </dataValidations>
@@ -3667,35 +3790,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3706,10 +3829,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
@@ -3717,10 +3840,10 @@
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
@@ -3728,15 +3851,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
@@ -3744,21 +3867,21 @@
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -3768,125 +3891,125 @@
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
@@ -3896,273 +4019,273 @@
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
@@ -4170,15 +4293,15 @@
         <v>43</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
@@ -4186,10 +4309,10 @@
     </row>
     <row r="41" spans="1:31" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="24" customHeight="1">
@@ -4197,15 +4320,15 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="24" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="24" customHeight="1">
@@ -4213,10 +4336,10 @@
     </row>
     <row r="46" spans="1:31" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="24" customHeight="1">
@@ -4224,28 +4347,28 @@
         <v>43</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="24" customHeight="1">
       <c r="B48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4253,15 +4376,15 @@
         <v>43</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4269,10 +4392,10 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -4280,51 +4403,25 @@
         <v>43</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="B58" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA16:AG16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>AA17:AG17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>AA18:AG18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AG19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:B30" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA24:AI24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AI25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AI26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AI27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AI28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AI29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AI30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA34:AE34</formula1>
     </dataValidation>
   </dataValidations>
@@ -4333,35 +4430,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4372,10 +4469,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4383,10 +4480,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4394,15 +4491,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4410,10 +4507,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4421,15 +4518,15 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
@@ -4437,10 +4534,10 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4448,15 +4545,15 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
@@ -4464,10 +4561,10 @@
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4475,15 +4572,15 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -4491,10 +4588,10 @@
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4502,55 +4599,58 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4561,10 +4661,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4572,10 +4672,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4583,15 +4683,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4599,115 +4699,121 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1">
       <c r="B19" s="11">
         <v>3.097</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="D19" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
+    <row r="25" spans="1:4" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1">
       <c r="B27" s="11">
-        <v>0.1347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1">
       <c r="B31" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4717,21 +4823,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4741,10 +4847,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4752,47 +4858,47 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -4802,21 +4908,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4826,21 +4932,21 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4850,23 +4956,23 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4874,39 +4980,39 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -4916,21 +5022,21 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -4940,111 +5046,114 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="178" customHeight="1">
+      <c r="B85" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="24" customHeight="1">
       <c r="B89" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
+    <row r="91" spans="1:4" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="24" customHeight="1">
       <c r="B93" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="D93" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5054,21 +5163,21 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -5078,74 +5187,39 @@
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B23" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B101 B97 B89 B59 B55 B51 B39" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B105 B93 B76" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5154,22 +5228,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -5177,12 +5251,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5193,23 +5267,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
@@ -5217,39 +5291,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -5259,373 +5333,373 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="24" customHeight="1">
@@ -5635,195 +5709,195 @@
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -5833,149 +5907,149 @@
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
@@ -5985,55 +6059,55 @@
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="24" customHeight="1">
@@ -6042,113 +6116,209 @@
       </c>
     </row>
     <row r="52" spans="1:40" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>483</v>
+      </c>
       <c r="AA52" s="6" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="AH52" s="6" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="AI52" s="6" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AJ52" s="6" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AK52" s="6" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AL52" s="6" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="AM52" s="6" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="AN52" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN53" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="24" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B23" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>AA17:AM17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>AA18:AM18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AM19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AM20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AM21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AM22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AM23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B33" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>AA28:AH28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AH29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AH31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AH32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AH33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B41" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>AA38:AI38</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AI39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>AA40:AI40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>AA41:AI41</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B47" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>AA46:AD46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>AA47:AD47</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>AA52:AN52</formula1>
     </dataValidation>
   </dataValidations>
